--- a/yokin_rate.xlsx
+++ b/yokin_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H519"/>
+  <dimension ref="A1:H778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17983,6 +17983,8760 @@
         <v>1</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G520" t="b">
+        <v>0</v>
+      </c>
+      <c r="H520" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>三菱UFJ銀行</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="b">
+        <v>0</v>
+      </c>
+      <c r="H521" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>あおぞら銀</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G522" t="b">
+        <v>1</v>
+      </c>
+      <c r="H522" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>イオン銀行</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G523" t="b">
+        <v>0</v>
+      </c>
+      <c r="H523" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>ＳＢＪ銀行</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G524" t="b">
+        <v>0</v>
+      </c>
+      <c r="H524" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>auじぶん銀行</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G525" t="b">
+        <v>0</v>
+      </c>
+      <c r="H525" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>北洋銀行</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>501</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G526" t="b">
+        <v>1</v>
+      </c>
+      <c r="H526" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>きらやか銀行</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>508</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G527" t="b">
+        <v>0</v>
+      </c>
+      <c r="H527" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>北日本銀行</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>509</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G528" t="b">
+        <v>0</v>
+      </c>
+      <c r="H528" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>GMOあおぞらネット銀行</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G529" t="b">
+        <v>0</v>
+      </c>
+      <c r="H529" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>仙台銀行</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>512</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G530" t="b">
+        <v>0</v>
+      </c>
+      <c r="H530" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>福島銀行</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>513</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G531" t="b">
+        <v>0</v>
+      </c>
+      <c r="H531" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>東和銀行</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>516</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G532" t="b">
+        <v>0</v>
+      </c>
+      <c r="H532" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>栃木銀行</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>517</v>
+      </c>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="b">
+        <v>0</v>
+      </c>
+      <c r="H533" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>京葉銀行</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>522</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G534" t="b">
+        <v>0</v>
+      </c>
+      <c r="H534" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>東日本銀行</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>525</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G535" t="b">
+        <v>1</v>
+      </c>
+      <c r="H535" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>東京スター銀行</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>526</v>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="b">
+        <v>1</v>
+      </c>
+      <c r="H536" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>大光銀行</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>532</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G537" t="b">
+        <v>1</v>
+      </c>
+      <c r="H537" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>長野銀行</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>533</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G538" t="b">
+        <v>1</v>
+      </c>
+      <c r="H538" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>富山第一銀行</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>534</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G539" t="b">
+        <v>1</v>
+      </c>
+      <c r="H539" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>福邦銀行</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>537</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G540" t="b">
+        <v>0</v>
+      </c>
+      <c r="H540" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>静岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>538</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G541" t="b">
+        <v>0</v>
+      </c>
+      <c r="H541" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>愛知銀行</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>542</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G542" t="b">
+        <v>0</v>
+      </c>
+      <c r="H542" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>名古屋銀行</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>543</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G543" t="b">
+        <v>0</v>
+      </c>
+      <c r="H543" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>中京銀行</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>544</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G544" t="b">
+        <v>1</v>
+      </c>
+      <c r="H544" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>みなと銀行</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>562</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G545" t="b">
+        <v>1</v>
+      </c>
+      <c r="H545" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>島根銀行</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>565</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G546" t="b">
+        <v>1</v>
+      </c>
+      <c r="H546" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>トマト銀行</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>566</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G547" t="b">
+        <v>1</v>
+      </c>
+      <c r="H547" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>もみじ銀行</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>569</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G548" t="b">
+        <v>0</v>
+      </c>
+      <c r="H548" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>西京銀行</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>570</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G549" t="b">
+        <v>1</v>
+      </c>
+      <c r="H549" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>徳島大正銀行</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>572</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G550" t="b">
+        <v>0</v>
+      </c>
+      <c r="H550" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>香川銀行</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>573</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G551" t="b">
+        <v>1</v>
+      </c>
+      <c r="H551" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>愛媛銀行</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>576</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G552" t="b">
+        <v>0</v>
+      </c>
+      <c r="H552" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>福岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>582</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G553" t="b">
+        <v>1</v>
+      </c>
+      <c r="H553" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>佐賀共栄銀行</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>583</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G554" t="b">
+        <v>0</v>
+      </c>
+      <c r="H554" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>長崎銀行</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>585</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G555" t="b">
+        <v>0</v>
+      </c>
+      <c r="H555" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>熊本銀行</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>587</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G556" t="b">
+        <v>0</v>
+      </c>
+      <c r="H556" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>住信SBIネット銀行</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G557" t="b">
+        <v>1</v>
+      </c>
+      <c r="H557" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>セブン銀行</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="b">
+        <v>0</v>
+      </c>
+      <c r="H558" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>みずほ銀行</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="b">
+        <v>0</v>
+      </c>
+      <c r="H559" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>豊和銀行</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>590</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G560" t="b">
+        <v>0</v>
+      </c>
+      <c r="H560" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>宮崎太陽銀行</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>591</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G561" t="b">
+        <v>0</v>
+      </c>
+      <c r="H561" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>南日本銀行</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>594</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G562" t="b">
+        <v>0</v>
+      </c>
+      <c r="H562" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>沖縄海邦銀行</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>596</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G563" t="b">
+        <v>0</v>
+      </c>
+      <c r="H563" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>福江信用組合</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G564" t="b">
+        <v>1</v>
+      </c>
+      <c r="H564" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>大分県信用組合</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G565" t="b">
+        <v>1</v>
+      </c>
+      <c r="H565" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>宮崎県南部信用組合</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G566" t="b">
+        <v>1</v>
+      </c>
+      <c r="H566" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>鹿児島興業信用組合</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G567" t="b">
+        <v>0</v>
+      </c>
+      <c r="H567" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>北海道信用金庫</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G568" t="b">
+        <v>0</v>
+      </c>
+      <c r="H568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>室蘭信用金庫</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G569" t="b">
+        <v>1</v>
+      </c>
+      <c r="H569" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G570" t="b">
+        <v>0</v>
+      </c>
+      <c r="H570" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>苫小牧信用金庫</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G571" t="b">
+        <v>1</v>
+      </c>
+      <c r="H571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>北門信用金庫</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G572" t="b">
+        <v>1</v>
+      </c>
+      <c r="H572" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>伊達信用金庫</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G573" t="b">
+        <v>0</v>
+      </c>
+      <c r="H573" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>北空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G574" t="b">
+        <v>0</v>
+      </c>
+      <c r="H574" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>日高信用金庫</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G575" t="b">
+        <v>0</v>
+      </c>
+      <c r="H575" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>道南うみ街信用金庫</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G576" t="b">
+        <v>1</v>
+      </c>
+      <c r="H576" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>旭川信用金庫</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G577" t="b">
+        <v>1</v>
+      </c>
+      <c r="H577" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>稚内信用金庫</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G578" t="b">
+        <v>1</v>
+      </c>
+      <c r="H578" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>留萌信用金庫</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G579" t="b">
+        <v>0</v>
+      </c>
+      <c r="H579" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>北星信用金庫</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G580" t="b">
+        <v>0</v>
+      </c>
+      <c r="H580" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>帯広信用金庫</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G581" t="b">
+        <v>0</v>
+      </c>
+      <c r="H581" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>釧路信用金庫</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G582" t="b">
+        <v>0</v>
+      </c>
+      <c r="H582" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>大地みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G583" t="b">
+        <v>1</v>
+      </c>
+      <c r="H583" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>SMBC</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G584" t="b">
+        <v>0</v>
+      </c>
+      <c r="H584" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>りそな</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr"/>
+      <c r="F585" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G585" t="b">
+        <v>0</v>
+      </c>
+      <c r="H585" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>ソニー銀行</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="b">
+        <v>0</v>
+      </c>
+      <c r="H586" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>北見信用金庫</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G587" t="b">
+        <v>1</v>
+      </c>
+      <c r="H587" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>網走信用金庫</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G588" t="b">
+        <v>0</v>
+      </c>
+      <c r="H588" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>遠軽信用金庫</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G589" t="b">
+        <v>1</v>
+      </c>
+      <c r="H589" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>東奥信用金庫</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G590" t="b">
+        <v>1</v>
+      </c>
+      <c r="H590" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>青い森信用金庫</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G591" t="b">
+        <v>0</v>
+      </c>
+      <c r="H591" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>秋田信用金庫</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G592" t="b">
+        <v>0</v>
+      </c>
+      <c r="H592" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>羽後信用金庫</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G593" t="b">
+        <v>1</v>
+      </c>
+      <c r="H593" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>山形信用金庫</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G594" t="b">
+        <v>0</v>
+      </c>
+      <c r="H594" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>米沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>1141</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G595" t="b">
+        <v>0</v>
+      </c>
+      <c r="H595" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>鶴岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G596" t="b">
+        <v>0</v>
+      </c>
+      <c r="H596" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>盛岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G597" t="b">
+        <v>0</v>
+      </c>
+      <c r="H597" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>宮古信用金庫</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>1152</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G598" t="b">
+        <v>0</v>
+      </c>
+      <c r="H598" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>一関信用金庫</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>1153</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G599" t="b">
+        <v>0</v>
+      </c>
+      <c r="H599" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>北上信用金庫</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>1154</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G600" t="b">
+        <v>0</v>
+      </c>
+      <c r="H600" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>杜の都信用金庫</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G601" t="b">
+        <v>0</v>
+      </c>
+      <c r="H601" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>郡山信用金庫</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G602" t="b">
+        <v>0</v>
+      </c>
+      <c r="H602" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>白河信用金庫</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G603" t="b">
+        <v>1</v>
+      </c>
+      <c r="H603" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>ひまわり信用金庫</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G604" t="b">
+        <v>1</v>
+      </c>
+      <c r="H604" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>あぶくま信用金庫</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G605" t="b">
+        <v>1</v>
+      </c>
+      <c r="H605" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>福島信用金庫</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G606" t="b">
+        <v>0</v>
+      </c>
+      <c r="H606" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>大和ネクスト銀行</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G607" t="b">
+        <v>0</v>
+      </c>
+      <c r="H607" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>みんなの銀行</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G608" t="b">
+        <v>1</v>
+      </c>
+      <c r="H608" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>楽天銀行</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G609" t="b">
+        <v>0</v>
+      </c>
+      <c r="H609" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>桐生信用金庫</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G610" t="b">
+        <v>0</v>
+      </c>
+      <c r="H610" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>アイオー信用金庫</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G611" t="b">
+        <v>0</v>
+      </c>
+      <c r="H611" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>利根郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>1208</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G612" t="b">
+        <v>1</v>
+      </c>
+      <c r="H612" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>北群馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G613" t="b">
+        <v>1</v>
+      </c>
+      <c r="H613" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>しののめ信用金庫</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="b">
+        <v>0</v>
+      </c>
+      <c r="H614" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>足利小山信用金庫</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>1221</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G615" t="b">
+        <v>1</v>
+      </c>
+      <c r="H615" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>栃木信用金庫</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G616" t="b">
+        <v>1</v>
+      </c>
+      <c r="H616" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>鹿沼相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>1223</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G617" t="b">
+        <v>0</v>
+      </c>
+      <c r="H617" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>佐野信用金庫</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G618" t="b">
+        <v>0</v>
+      </c>
+      <c r="H618" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>大田原信用金庫</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
+        <v>1225</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G619" t="b">
+        <v>0</v>
+      </c>
+      <c r="H619" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>烏山信用金庫</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G620" t="b">
+        <v>1</v>
+      </c>
+      <c r="H620" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>水戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>1240</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G621" t="b">
+        <v>1</v>
+      </c>
+      <c r="H621" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>結城信用金庫</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>1242</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G622" t="b">
+        <v>0</v>
+      </c>
+      <c r="H622" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>埼玉縣信用金庫</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G623" t="b">
+        <v>0</v>
+      </c>
+      <c r="H623" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>川口信用金庫</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G624" t="b">
+        <v>0</v>
+      </c>
+      <c r="H624" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>青木信用金庫</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>1252</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G625" t="b">
+        <v>1</v>
+      </c>
+      <c r="H625" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>飯能信用金庫</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>1253</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G626" t="b">
+        <v>0</v>
+      </c>
+      <c r="H626" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>千葉信用金庫</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G627" t="b">
+        <v>1</v>
+      </c>
+      <c r="H627" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>銚子信用金庫</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>1261</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G628" t="b">
+        <v>1</v>
+      </c>
+      <c r="H628" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>館山信用金庫</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F629" t="n">
+        <v>113</v>
+      </c>
+      <c r="G629" t="b">
+        <v>0</v>
+      </c>
+      <c r="H629" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>佐原信用金庫</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>1267</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G630" t="b">
+        <v>0</v>
+      </c>
+      <c r="H630" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>横浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G631" t="b">
+        <v>0</v>
+      </c>
+      <c r="H631" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>湘南信用金庫</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G632" t="b">
+        <v>0</v>
+      </c>
+      <c r="H632" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>川崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>1283</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G633" t="b">
+        <v>0</v>
+      </c>
+      <c r="H633" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>平塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G634" t="b">
+        <v>1</v>
+      </c>
+      <c r="H634" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>さがみ信用金庫</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>1288</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G635" t="b">
+        <v>1</v>
+      </c>
+      <c r="H635" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G636" t="b">
+        <v>0</v>
+      </c>
+      <c r="H636" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>UI銀行</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G637" t="b">
+        <v>0</v>
+      </c>
+      <c r="H637" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>中南信用金庫</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G638" t="b">
+        <v>0</v>
+      </c>
+      <c r="H638" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>朝日信用金庫</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>1303</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G639" t="b">
+        <v>0</v>
+      </c>
+      <c r="H639" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>興産信用金庫</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>1305</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G640" t="b">
+        <v>1</v>
+      </c>
+      <c r="H640" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>さわやか信用金庫</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>1310</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G641" t="b">
+        <v>1</v>
+      </c>
+      <c r="H641" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>東京シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>1311</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G642" t="b">
+        <v>0</v>
+      </c>
+      <c r="H642" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>芝信用金庫</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G643" t="b">
+        <v>1</v>
+      </c>
+      <c r="H643" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>紀陽銀行</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>163</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G644" t="b">
+        <v>0</v>
+      </c>
+      <c r="H644" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>但馬銀行</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>164</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G645" t="b">
+        <v>1</v>
+      </c>
+      <c r="H645" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>東榮信用金庫</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G646" t="b">
+        <v>0</v>
+      </c>
+      <c r="H646" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>亀有信用金庫</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
+        <v>1323</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G647" t="b">
+        <v>0</v>
+      </c>
+      <c r="H647" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>甲府信用金庫</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>1385</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G648" t="b">
+        <v>0</v>
+      </c>
+      <c r="H648" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>山梨信用金庫</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E649" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G649" t="b">
+        <v>0</v>
+      </c>
+      <c r="H649" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>長野信用金庫</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G650" t="b">
+        <v>0</v>
+      </c>
+      <c r="H650" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>松本信用金庫</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
+        <v>1391</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G651" t="b">
+        <v>1</v>
+      </c>
+      <c r="H651" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>諏訪信用金庫</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E652" t="n">
+        <v>1393</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G652" t="b">
+        <v>1</v>
+      </c>
+      <c r="H652" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>飯田信用金庫</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E653" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G653" t="b">
+        <v>0</v>
+      </c>
+      <c r="H653" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>アルプス中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E654" t="n">
+        <v>1396</v>
+      </c>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="b">
+        <v>0</v>
+      </c>
+      <c r="H654" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>富山信用金庫</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
+        <v>1401</v>
+      </c>
+      <c r="F655" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G655" t="b">
+        <v>1</v>
+      </c>
+      <c r="H655" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>新湊信用金庫</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E656" t="n">
+        <v>1404</v>
+      </c>
+      <c r="F656" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G656" t="b">
+        <v>0</v>
+      </c>
+      <c r="H656" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>にいかわ信用金庫</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G657" t="b">
+        <v>0</v>
+      </c>
+      <c r="H657" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>氷見伏木信用金庫</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
+        <v>1406</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G658" t="b">
+        <v>0</v>
+      </c>
+      <c r="H658" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>石動信用金庫</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G659" t="b">
+        <v>1</v>
+      </c>
+      <c r="H659" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>金沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G660" t="b">
+        <v>0</v>
+      </c>
+      <c r="H660" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>のと共栄信用金庫</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G661" t="b">
+        <v>0</v>
+      </c>
+      <c r="H661" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>はくさん信用金庫</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G662" t="b">
+        <v>1</v>
+      </c>
+      <c r="H662" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>興能信用金庫</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E663" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G663" t="b">
+        <v>0</v>
+      </c>
+      <c r="H663" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>福井信用金庫</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E664" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G664" t="b">
+        <v>1</v>
+      </c>
+      <c r="H664" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>敦賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G665" t="b">
+        <v>1</v>
+      </c>
+      <c r="H665" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>越前信用金庫</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E666" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F666" t="n">
+        <v>300</v>
+      </c>
+      <c r="G666" t="b">
+        <v>1</v>
+      </c>
+      <c r="H666" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>しずおか焼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G667" t="b">
+        <v>0</v>
+      </c>
+      <c r="H667" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>静清信用金庫</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E668" t="n">
+        <v>1502</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G668" t="b">
+        <v>1</v>
+      </c>
+      <c r="H668" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>浜松磐田信用金庫</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E669" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G669" t="b">
+        <v>0</v>
+      </c>
+      <c r="H669" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>沼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E670" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F670" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G670" t="b">
+        <v>0</v>
+      </c>
+      <c r="H670" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>三島信用金庫</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E671" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F671" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G671" t="b">
+        <v>0</v>
+      </c>
+      <c r="H671" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>富士宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E672" t="n">
+        <v>1507</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G672" t="b">
+        <v>1</v>
+      </c>
+      <c r="H672" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>島田掛川信用金庫</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E673" t="n">
+        <v>1513</v>
+      </c>
+      <c r="F673" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G673" t="b">
+        <v>1</v>
+      </c>
+      <c r="H673" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>小松川信用金庫</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G674" t="b">
+        <v>1</v>
+      </c>
+      <c r="H674" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>東京三協信用金庫</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G675" t="b">
+        <v>1</v>
+      </c>
+      <c r="H675" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>富士信用金庫</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>1515</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G676" t="b">
+        <v>0</v>
+      </c>
+      <c r="H676" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>遠州信用金庫</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G677" t="b">
+        <v>0</v>
+      </c>
+      <c r="H677" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>岐阜信用金庫</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G678" t="b">
+        <v>1</v>
+      </c>
+      <c r="H678" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>高山信用金庫</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G679" t="b">
+        <v>1</v>
+      </c>
+      <c r="H679" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>東濃信用金庫</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G680" t="b">
+        <v>0</v>
+      </c>
+      <c r="H680" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>関信用金庫</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G681" t="b">
+        <v>0</v>
+      </c>
+      <c r="H681" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>八幡信用金庫</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>1538</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G682" t="b">
+        <v>1</v>
+      </c>
+      <c r="H682" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>豊橋信用金庫</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>1551</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G683" t="b">
+        <v>1</v>
+      </c>
+      <c r="H683" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>岡崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>1552</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G684" t="b">
+        <v>1</v>
+      </c>
+      <c r="H684" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>半田信用金庫</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>1555</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G685" t="b">
+        <v>0</v>
+      </c>
+      <c r="H685" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>知多信用金庫</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G686" t="b">
+        <v>1</v>
+      </c>
+      <c r="H686" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>豊川信用金庫</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G687" t="b">
+        <v>0</v>
+      </c>
+      <c r="H687" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>豊田信用金庫</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G688" t="b">
+        <v>0</v>
+      </c>
+      <c r="H688" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>碧海信用金庫</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G689" t="b">
+        <v>0</v>
+      </c>
+      <c r="H689" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>西尾信用金庫</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G690" t="b">
+        <v>1</v>
+      </c>
+      <c r="H690" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>蒲郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G691" t="b">
+        <v>1</v>
+      </c>
+      <c r="H691" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>尾西信用金庫</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G692" t="b">
+        <v>1</v>
+      </c>
+      <c r="H692" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>中日信用金庫</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G693" t="b">
+        <v>1</v>
+      </c>
+      <c r="H693" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>桑名三重信用金庫</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>三重県</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G694" t="b">
+        <v>1</v>
+      </c>
+      <c r="H694" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>滋賀中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G695" t="b">
+        <v>0</v>
+      </c>
+      <c r="H695" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>長浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>1603</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G696" t="b">
+        <v>0</v>
+      </c>
+      <c r="H696" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>湖東信用金庫</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G697" t="b">
+        <v>1</v>
+      </c>
+      <c r="H697" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>西京信用金庫</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>1336</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G698" t="b">
+        <v>0</v>
+      </c>
+      <c r="H698" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>西武信用金庫</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>1341</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G699" t="b">
+        <v>0</v>
+      </c>
+      <c r="H699" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>城南信用金庫</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G700" t="b">
+        <v>1</v>
+      </c>
+      <c r="H700" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>京都信用金庫</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G701" t="b">
+        <v>0</v>
+      </c>
+      <c r="H701" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>京都中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G702" t="b">
+        <v>0</v>
+      </c>
+      <c r="H702" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>京都北都信用金庫</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G703" t="b">
+        <v>1</v>
+      </c>
+      <c r="H703" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>大阪信用金庫</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G704" t="b">
+        <v>1</v>
+      </c>
+      <c r="H704" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>大阪シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G705" t="b">
+        <v>1</v>
+      </c>
+      <c r="H705" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>北おおさか信用金庫</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G706" t="b">
+        <v>1</v>
+      </c>
+      <c r="H706" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>奈良信用金庫</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G707" t="b">
+        <v>1</v>
+      </c>
+      <c r="H707" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>大和信用金庫</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G708" t="b">
+        <v>0</v>
+      </c>
+      <c r="H708" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>奈良中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G709" t="b">
+        <v>0</v>
+      </c>
+      <c r="H709" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>新宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G710" t="b">
+        <v>0</v>
+      </c>
+      <c r="H710" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>きのくに信用金庫</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G711" t="b">
+        <v>0</v>
+      </c>
+      <c r="H711" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>神戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G712" t="b">
+        <v>0</v>
+      </c>
+      <c r="H712" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>播州信用金庫</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G713" t="b">
+        <v>0</v>
+      </c>
+      <c r="H713" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G714" t="b">
+        <v>0</v>
+      </c>
+      <c r="H714" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>尼崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G715" t="b">
+        <v>1</v>
+      </c>
+      <c r="H715" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>日新信用金庫</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G716" t="b">
+        <v>1</v>
+      </c>
+      <c r="H716" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>淡路信用金庫</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G717" t="b">
+        <v>0</v>
+      </c>
+      <c r="H717" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>但馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G718" t="b">
+        <v>0</v>
+      </c>
+      <c r="H718" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>西兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G719" t="b">
+        <v>0</v>
+      </c>
+      <c r="H719" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>但陽信用金庫</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>1696</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G720" t="b">
+        <v>0</v>
+      </c>
+      <c r="H720" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>鳥取信用金庫</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G721" t="b">
+        <v>0</v>
+      </c>
+      <c r="H721" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>米子信用金庫</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G722" t="b">
+        <v>0</v>
+      </c>
+      <c r="H722" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>倉吉信用金庫</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>1703</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G723" t="b">
+        <v>0</v>
+      </c>
+      <c r="H723" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>しまね信用金庫</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G724" t="b">
+        <v>0</v>
+      </c>
+      <c r="H724" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>昭和信用金庫</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G725" t="b">
+        <v>0</v>
+      </c>
+      <c r="H725" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>世田谷信用金庫</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>1348</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G726" t="b">
+        <v>0</v>
+      </c>
+      <c r="H726" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>日本海信用金庫</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>1711</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G727" t="b">
+        <v>0</v>
+      </c>
+      <c r="H727" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>島根中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G728" t="b">
+        <v>0</v>
+      </c>
+      <c r="H728" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>おかやま信用金庫</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>1732</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G729" t="b">
+        <v>1</v>
+      </c>
+      <c r="H729" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>水島信用金庫</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G730" t="b">
+        <v>1</v>
+      </c>
+      <c r="H730" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>津山信用金庫</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>1735</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G731" t="b">
+        <v>1</v>
+      </c>
+      <c r="H731" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>玉島信用金庫</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G732" t="b">
+        <v>1</v>
+      </c>
+      <c r="H732" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>備北信用金庫</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G733" t="b">
+        <v>1</v>
+      </c>
+      <c r="H733" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>吉備信用金庫</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>1741</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G734" t="b">
+        <v>0</v>
+      </c>
+      <c r="H734" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>備前日生信用金庫</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G735" t="b">
+        <v>0</v>
+      </c>
+      <c r="H735" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>広島信用金庫</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G736" t="b">
+        <v>1</v>
+      </c>
+      <c r="H736" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>呉信用金庫</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F737" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G737" t="b">
+        <v>0</v>
+      </c>
+      <c r="H737" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>西中国信用金庫</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G738" t="b">
+        <v>1</v>
+      </c>
+      <c r="H738" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>東山口信用金庫</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G739" t="b">
+        <v>0</v>
+      </c>
+      <c r="H739" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>阿南信用金庫</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G740" t="b">
+        <v>0</v>
+      </c>
+      <c r="H740" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>高松信用金庫</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F741" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G741" t="b">
+        <v>0</v>
+      </c>
+      <c r="H741" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>観音寺信用金庫</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>1833</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G742" t="b">
+        <v>0</v>
+      </c>
+      <c r="H742" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>愛媛信用金庫</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G743" t="b">
+        <v>0</v>
+      </c>
+      <c r="H743" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>宇和島信用金庫</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>1862</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G744" t="b">
+        <v>0</v>
+      </c>
+      <c r="H744" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>東予信用金庫</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>1864</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G745" t="b">
+        <v>0</v>
+      </c>
+      <c r="H745" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>幡多信用金庫</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F746" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G746" t="b">
+        <v>0</v>
+      </c>
+      <c r="H746" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>高知信用金庫</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G747" t="b">
+        <v>1</v>
+      </c>
+      <c r="H747" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>福岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G748" t="b">
+        <v>1</v>
+      </c>
+      <c r="H748" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>福岡ひびき信用金庫</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G749" t="b">
+        <v>0</v>
+      </c>
+      <c r="H749" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>東京信用金庫</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G750" t="b">
+        <v>1</v>
+      </c>
+      <c r="H750" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>城北信用金庫</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G751" t="b">
+        <v>0</v>
+      </c>
+      <c r="H751" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>瀧野川信用金庫</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>1352</v>
+      </c>
+      <c r="F752" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G752" t="b">
+        <v>1</v>
+      </c>
+      <c r="H752" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>飯塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F753" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G753" t="b">
+        <v>0</v>
+      </c>
+      <c r="H753" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>田川信用金庫</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G754" t="b">
+        <v>0</v>
+      </c>
+      <c r="H754" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>大川信用金庫</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G755" t="b">
+        <v>0</v>
+      </c>
+      <c r="H755" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>遠賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F756" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G756" t="b">
+        <v>1</v>
+      </c>
+      <c r="H756" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>佐賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G757" t="b">
+        <v>0</v>
+      </c>
+      <c r="H757" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>たちばな信用金庫</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G758" t="b">
+        <v>0</v>
+      </c>
+      <c r="H758" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>熊本第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>1952</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G759" t="b">
+        <v>0</v>
+      </c>
+      <c r="H759" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>熊本中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>1954</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G760" t="b">
+        <v>1</v>
+      </c>
+      <c r="H760" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>天草信用金庫</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F761" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G761" t="b">
+        <v>0</v>
+      </c>
+      <c r="H761" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>大分信用金庫</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G762" t="b">
+        <v>1</v>
+      </c>
+      <c r="H762" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>大分みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G763" t="b">
+        <v>0</v>
+      </c>
+      <c r="H763" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>宮崎第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G764" t="b">
+        <v>0</v>
+      </c>
+      <c r="H764" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>高鍋信用金庫</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G765" t="b">
+        <v>1</v>
+      </c>
+      <c r="H765" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>鹿児島信用金庫</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F766" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G766" t="b">
+        <v>0</v>
+      </c>
+      <c r="H766" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>鹿児島相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G767" t="b">
+        <v>1</v>
+      </c>
+      <c r="H767" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>コザ信用金庫</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G768" t="b">
+        <v>0</v>
+      </c>
+      <c r="H768" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>巣鴨信用金庫</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>1356</v>
+      </c>
+      <c r="F769" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G769" t="b">
+        <v>0</v>
+      </c>
+      <c r="H769" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>青梅信用金庫</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>1358</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G770" t="b">
+        <v>1</v>
+      </c>
+      <c r="H770" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>多摩信用金庫</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>1360</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G771" t="b">
+        <v>1</v>
+      </c>
+      <c r="H771" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>新潟信用金庫</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G772" t="b">
+        <v>0</v>
+      </c>
+      <c r="H772" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>長岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>1371</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G773" t="b">
+        <v>0</v>
+      </c>
+      <c r="H773" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>三条信用金庫</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>1373</v>
+      </c>
+      <c r="F774" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G774" t="b">
+        <v>1</v>
+      </c>
+      <c r="H774" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>柏崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G775" t="b">
+        <v>1</v>
+      </c>
+      <c r="H775" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>上越信用金庫</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G776" t="b">
+        <v>0</v>
+      </c>
+      <c r="H776" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>新井信用金庫</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>1377</v>
+      </c>
+      <c r="F777" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G777" t="b">
+        <v>0</v>
+      </c>
+      <c r="H777" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>加茂信用金庫</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G778" t="b">
+        <v>0</v>
+      </c>
+      <c r="H778" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/yokin_rate.xlsx
+++ b/yokin_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H778"/>
+  <dimension ref="A1:H1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26737,6 +26737,8758 @@
         <v>1</v>
       </c>
     </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G779" t="b">
+        <v>0</v>
+      </c>
+      <c r="H779" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>三菱UFJ銀行</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="b">
+        <v>0</v>
+      </c>
+      <c r="H780" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>あおぞら銀</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G781" t="b">
+        <v>1</v>
+      </c>
+      <c r="H781" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>イオン銀行</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G782" t="b">
+        <v>0</v>
+      </c>
+      <c r="H782" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>ＳＢＪ銀行</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G783" t="b">
+        <v>0</v>
+      </c>
+      <c r="H783" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>auじぶん銀行</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G784" t="b">
+        <v>0</v>
+      </c>
+      <c r="H784" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>北洋銀行</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>501</v>
+      </c>
+      <c r="F785" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G785" t="b">
+        <v>1</v>
+      </c>
+      <c r="H785" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>きらやか銀行</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>508</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G786" t="b">
+        <v>0</v>
+      </c>
+      <c r="H786" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>北日本銀行</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>509</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G787" t="b">
+        <v>0</v>
+      </c>
+      <c r="H787" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>GMOあおぞらネット銀行</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G788" t="b">
+        <v>0</v>
+      </c>
+      <c r="H788" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>仙台銀行</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>512</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G789" t="b">
+        <v>0</v>
+      </c>
+      <c r="H789" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>福島銀行</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>513</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G790" t="b">
+        <v>0</v>
+      </c>
+      <c r="H790" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>東和銀行</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>516</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G791" t="b">
+        <v>0</v>
+      </c>
+      <c r="H791" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>栃木銀行</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>517</v>
+      </c>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="b">
+        <v>0</v>
+      </c>
+      <c r="H792" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>京葉銀行</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>522</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G793" t="b">
+        <v>0</v>
+      </c>
+      <c r="H793" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>東日本銀行</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>525</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G794" t="b">
+        <v>1</v>
+      </c>
+      <c r="H794" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>東京スター銀行</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>526</v>
+      </c>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="b">
+        <v>1</v>
+      </c>
+      <c r="H795" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>大光銀行</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>532</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G796" t="b">
+        <v>1</v>
+      </c>
+      <c r="H796" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>長野銀行</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>533</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G797" t="b">
+        <v>1</v>
+      </c>
+      <c r="H797" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>富山第一銀行</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>534</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G798" t="b">
+        <v>1</v>
+      </c>
+      <c r="H798" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>福邦銀行</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>537</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G799" t="b">
+        <v>0</v>
+      </c>
+      <c r="H799" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>静岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>538</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G800" t="b">
+        <v>0</v>
+      </c>
+      <c r="H800" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>愛知銀行</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>542</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G801" t="b">
+        <v>0</v>
+      </c>
+      <c r="H801" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>名古屋銀行</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>543</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G802" t="b">
+        <v>0</v>
+      </c>
+      <c r="H802" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>中京銀行</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>544</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G803" t="b">
+        <v>1</v>
+      </c>
+      <c r="H803" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>みなと銀行</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>562</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G804" t="b">
+        <v>1</v>
+      </c>
+      <c r="H804" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>島根銀行</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>565</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G805" t="b">
+        <v>1</v>
+      </c>
+      <c r="H805" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>トマト銀行</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>566</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G806" t="b">
+        <v>1</v>
+      </c>
+      <c r="H806" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>もみじ銀行</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>569</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G807" t="b">
+        <v>0</v>
+      </c>
+      <c r="H807" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>西京銀行</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>570</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G808" t="b">
+        <v>1</v>
+      </c>
+      <c r="H808" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>徳島大正銀行</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>572</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G809" t="b">
+        <v>0</v>
+      </c>
+      <c r="H809" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>香川銀行</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>573</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G810" t="b">
+        <v>1</v>
+      </c>
+      <c r="H810" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>愛媛銀行</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>576</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G811" t="b">
+        <v>0</v>
+      </c>
+      <c r="H811" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>福岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>582</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G812" t="b">
+        <v>1</v>
+      </c>
+      <c r="H812" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>佐賀共栄銀行</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>583</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G813" t="b">
+        <v>0</v>
+      </c>
+      <c r="H813" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>長崎銀行</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>585</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G814" t="b">
+        <v>0</v>
+      </c>
+      <c r="H814" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>熊本銀行</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>587</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G815" t="b">
+        <v>0</v>
+      </c>
+      <c r="H815" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>住信SBIネット銀行</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G816" t="b">
+        <v>1</v>
+      </c>
+      <c r="H816" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>セブン銀行</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="b">
+        <v>0</v>
+      </c>
+      <c r="H817" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>みずほ銀行</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="b">
+        <v>0</v>
+      </c>
+      <c r="H818" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>豊和銀行</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>590</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G819" t="b">
+        <v>0</v>
+      </c>
+      <c r="H819" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>宮崎太陽銀行</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>591</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G820" t="b">
+        <v>0</v>
+      </c>
+      <c r="H820" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>南日本銀行</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>594</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G821" t="b">
+        <v>0</v>
+      </c>
+      <c r="H821" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>沖縄海邦銀行</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>596</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G822" t="b">
+        <v>0</v>
+      </c>
+      <c r="H822" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>福江信用組合</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G823" t="b">
+        <v>1</v>
+      </c>
+      <c r="H823" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>大分県信用組合</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G824" t="b">
+        <v>1</v>
+      </c>
+      <c r="H824" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>宮崎県南部信用組合</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G825" t="b">
+        <v>1</v>
+      </c>
+      <c r="H825" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>鹿児島興業信用組合</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G826" t="b">
+        <v>0</v>
+      </c>
+      <c r="H826" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>北海道信用金庫</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G827" t="b">
+        <v>0</v>
+      </c>
+      <c r="H827" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>室蘭信用金庫</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G828" t="b">
+        <v>1</v>
+      </c>
+      <c r="H828" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G829" t="b">
+        <v>0</v>
+      </c>
+      <c r="H829" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>苫小牧信用金庫</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G830" t="b">
+        <v>1</v>
+      </c>
+      <c r="H830" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>北門信用金庫</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G831" t="b">
+        <v>1</v>
+      </c>
+      <c r="H831" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>伊達信用金庫</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G832" t="b">
+        <v>0</v>
+      </c>
+      <c r="H832" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>北空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G833" t="b">
+        <v>0</v>
+      </c>
+      <c r="H833" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>日高信用金庫</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G834" t="b">
+        <v>0</v>
+      </c>
+      <c r="H834" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>道南うみ街信用金庫</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G835" t="b">
+        <v>1</v>
+      </c>
+      <c r="H835" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>旭川信用金庫</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G836" t="b">
+        <v>1</v>
+      </c>
+      <c r="H836" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>稚内信用金庫</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G837" t="b">
+        <v>1</v>
+      </c>
+      <c r="H837" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>留萌信用金庫</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G838" t="b">
+        <v>0</v>
+      </c>
+      <c r="H838" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>北星信用金庫</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G839" t="b">
+        <v>0</v>
+      </c>
+      <c r="H839" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>帯広信用金庫</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G840" t="b">
+        <v>0</v>
+      </c>
+      <c r="H840" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>釧路信用金庫</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G841" t="b">
+        <v>0</v>
+      </c>
+      <c r="H841" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>大地みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G842" t="b">
+        <v>1</v>
+      </c>
+      <c r="H842" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>SMBC</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G843" t="b">
+        <v>0</v>
+      </c>
+      <c r="H843" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>りそな</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G844" t="b">
+        <v>0</v>
+      </c>
+      <c r="H844" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>ソニー銀行</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="b">
+        <v>0</v>
+      </c>
+      <c r="H845" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>北見信用金庫</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G846" t="b">
+        <v>1</v>
+      </c>
+      <c r="H846" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>網走信用金庫</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G847" t="b">
+        <v>0</v>
+      </c>
+      <c r="H847" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>遠軽信用金庫</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G848" t="b">
+        <v>1</v>
+      </c>
+      <c r="H848" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>東奥信用金庫</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G849" t="b">
+        <v>1</v>
+      </c>
+      <c r="H849" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>青い森信用金庫</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G850" t="b">
+        <v>0</v>
+      </c>
+      <c r="H850" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>秋田信用金庫</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G851" t="b">
+        <v>0</v>
+      </c>
+      <c r="H851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>羽後信用金庫</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G852" t="b">
+        <v>1</v>
+      </c>
+      <c r="H852" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>山形信用金庫</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G853" t="b">
+        <v>0</v>
+      </c>
+      <c r="H853" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>米沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>1141</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G854" t="b">
+        <v>0</v>
+      </c>
+      <c r="H854" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>鶴岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G855" t="b">
+        <v>0</v>
+      </c>
+      <c r="H855" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>盛岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G856" t="b">
+        <v>0</v>
+      </c>
+      <c r="H856" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>宮古信用金庫</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>1152</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G857" t="b">
+        <v>0</v>
+      </c>
+      <c r="H857" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>一関信用金庫</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>1153</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G858" t="b">
+        <v>0</v>
+      </c>
+      <c r="H858" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>北上信用金庫</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>1154</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G859" t="b">
+        <v>0</v>
+      </c>
+      <c r="H859" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>杜の都信用金庫</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G860" t="b">
+        <v>0</v>
+      </c>
+      <c r="H860" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>郡山信用金庫</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G861" t="b">
+        <v>0</v>
+      </c>
+      <c r="H861" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>白河信用金庫</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G862" t="b">
+        <v>1</v>
+      </c>
+      <c r="H862" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>ひまわり信用金庫</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G863" t="b">
+        <v>1</v>
+      </c>
+      <c r="H863" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>あぶくま信用金庫</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G864" t="b">
+        <v>1</v>
+      </c>
+      <c r="H864" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>福島信用金庫</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G865" t="b">
+        <v>0</v>
+      </c>
+      <c r="H865" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>大和ネクスト銀行</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G866" t="b">
+        <v>0</v>
+      </c>
+      <c r="H866" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>みんなの銀行</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G867" t="b">
+        <v>1</v>
+      </c>
+      <c r="H867" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>楽天銀行</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G868" t="b">
+        <v>0</v>
+      </c>
+      <c r="H868" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>桐生信用金庫</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G869" t="b">
+        <v>0</v>
+      </c>
+      <c r="H869" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>アイオー信用金庫</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G870" t="b">
+        <v>0</v>
+      </c>
+      <c r="H870" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>利根郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>1208</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G871" t="b">
+        <v>1</v>
+      </c>
+      <c r="H871" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>北群馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G872" t="b">
+        <v>1</v>
+      </c>
+      <c r="H872" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>しののめ信用金庫</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="b">
+        <v>0</v>
+      </c>
+      <c r="H873" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>足利小山信用金庫</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>1221</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G874" t="b">
+        <v>1</v>
+      </c>
+      <c r="H874" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>栃木信用金庫</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G875" t="b">
+        <v>1</v>
+      </c>
+      <c r="H875" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>鹿沼相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>1223</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G876" t="b">
+        <v>0</v>
+      </c>
+      <c r="H876" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>佐野信用金庫</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G877" t="b">
+        <v>0</v>
+      </c>
+      <c r="H877" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>大田原信用金庫</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>1225</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G878" t="b">
+        <v>0</v>
+      </c>
+      <c r="H878" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>烏山信用金庫</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G879" t="b">
+        <v>1</v>
+      </c>
+      <c r="H879" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>水戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>1240</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G880" t="b">
+        <v>1</v>
+      </c>
+      <c r="H880" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>結城信用金庫</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>1242</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G881" t="b">
+        <v>0</v>
+      </c>
+      <c r="H881" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>埼玉縣信用金庫</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G882" t="b">
+        <v>0</v>
+      </c>
+      <c r="H882" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>川口信用金庫</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G883" t="b">
+        <v>0</v>
+      </c>
+      <c r="H883" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>青木信用金庫</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>1252</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G884" t="b">
+        <v>1</v>
+      </c>
+      <c r="H884" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>飯能信用金庫</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>1253</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G885" t="b">
+        <v>0</v>
+      </c>
+      <c r="H885" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>千葉信用金庫</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G886" t="b">
+        <v>1</v>
+      </c>
+      <c r="H886" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>銚子信用金庫</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>1261</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G887" t="b">
+        <v>1</v>
+      </c>
+      <c r="H887" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>館山信用金庫</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F888" t="n">
+        <v>113</v>
+      </c>
+      <c r="G888" t="b">
+        <v>0</v>
+      </c>
+      <c r="H888" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>佐原信用金庫</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>1267</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G889" t="b">
+        <v>0</v>
+      </c>
+      <c r="H889" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>横浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G890" t="b">
+        <v>0</v>
+      </c>
+      <c r="H890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>湘南信用金庫</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G891" t="b">
+        <v>0</v>
+      </c>
+      <c r="H891" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>川崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>1283</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G892" t="b">
+        <v>0</v>
+      </c>
+      <c r="H892" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>平塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G893" t="b">
+        <v>1</v>
+      </c>
+      <c r="H893" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>さがみ信用金庫</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>1288</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G894" t="b">
+        <v>1</v>
+      </c>
+      <c r="H894" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr"/>
+      <c r="F895" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G895" t="b">
+        <v>0</v>
+      </c>
+      <c r="H895" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>UI銀行</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr"/>
+      <c r="F896" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G896" t="b">
+        <v>0</v>
+      </c>
+      <c r="H896" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>中南信用金庫</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G897" t="b">
+        <v>0</v>
+      </c>
+      <c r="H897" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>朝日信用金庫</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>1303</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G898" t="b">
+        <v>0</v>
+      </c>
+      <c r="H898" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>興産信用金庫</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>1305</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G899" t="b">
+        <v>1</v>
+      </c>
+      <c r="H899" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>さわやか信用金庫</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>1310</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G900" t="b">
+        <v>1</v>
+      </c>
+      <c r="H900" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>東京シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>1311</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G901" t="b">
+        <v>0</v>
+      </c>
+      <c r="H901" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>芝信用金庫</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G902" t="b">
+        <v>1</v>
+      </c>
+      <c r="H902" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>紀陽銀行</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>163</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G903" t="b">
+        <v>0</v>
+      </c>
+      <c r="H903" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>但馬銀行</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>164</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G904" t="b">
+        <v>1</v>
+      </c>
+      <c r="H904" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>東榮信用金庫</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G905" t="b">
+        <v>0</v>
+      </c>
+      <c r="H905" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>亀有信用金庫</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>1323</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G906" t="b">
+        <v>0</v>
+      </c>
+      <c r="H906" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>甲府信用金庫</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>1385</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G907" t="b">
+        <v>0</v>
+      </c>
+      <c r="H907" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>山梨信用金庫</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G908" t="b">
+        <v>0</v>
+      </c>
+      <c r="H908" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>長野信用金庫</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G909" t="b">
+        <v>0</v>
+      </c>
+      <c r="H909" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>松本信用金庫</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>1391</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G910" t="b">
+        <v>1</v>
+      </c>
+      <c r="H910" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>諏訪信用金庫</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>1393</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G911" t="b">
+        <v>1</v>
+      </c>
+      <c r="H911" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>飯田信用金庫</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G912" t="b">
+        <v>0</v>
+      </c>
+      <c r="H912" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>アルプス中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>1396</v>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="b">
+        <v>0</v>
+      </c>
+      <c r="H913" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>富山信用金庫</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>1401</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G914" t="b">
+        <v>1</v>
+      </c>
+      <c r="H914" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>新湊信用金庫</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>1404</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G915" t="b">
+        <v>0</v>
+      </c>
+      <c r="H915" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>にいかわ信用金庫</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G916" t="b">
+        <v>0</v>
+      </c>
+      <c r="H916" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>氷見伏木信用金庫</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>1406</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G917" t="b">
+        <v>0</v>
+      </c>
+      <c r="H917" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>石動信用金庫</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G918" t="b">
+        <v>1</v>
+      </c>
+      <c r="H918" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>金沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G919" t="b">
+        <v>0</v>
+      </c>
+      <c r="H919" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>のと共栄信用金庫</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G920" t="b">
+        <v>0</v>
+      </c>
+      <c r="H920" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>はくさん信用金庫</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G921" t="b">
+        <v>1</v>
+      </c>
+      <c r="H921" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>興能信用金庫</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G922" t="b">
+        <v>0</v>
+      </c>
+      <c r="H922" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>福井信用金庫</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G923" t="b">
+        <v>1</v>
+      </c>
+      <c r="H923" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>敦賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G924" t="b">
+        <v>1</v>
+      </c>
+      <c r="H924" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>越前信用金庫</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F925" t="n">
+        <v>300</v>
+      </c>
+      <c r="G925" t="b">
+        <v>1</v>
+      </c>
+      <c r="H925" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>しずおか焼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="b">
+        <v>0</v>
+      </c>
+      <c r="H926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>静清信用金庫</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>1502</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G927" t="b">
+        <v>1</v>
+      </c>
+      <c r="H927" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>浜松磐田信用金庫</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G928" t="b">
+        <v>0</v>
+      </c>
+      <c r="H928" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>沼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G929" t="b">
+        <v>0</v>
+      </c>
+      <c r="H929" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>三島信用金庫</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G930" t="b">
+        <v>0</v>
+      </c>
+      <c r="H930" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>富士宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>1507</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G931" t="b">
+        <v>1</v>
+      </c>
+      <c r="H931" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>島田掛川信用金庫</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>1513</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G932" t="b">
+        <v>1</v>
+      </c>
+      <c r="H932" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>小松川信用金庫</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G933" t="b">
+        <v>1</v>
+      </c>
+      <c r="H933" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>東京三協信用金庫</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G934" t="b">
+        <v>1</v>
+      </c>
+      <c r="H934" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>富士信用金庫</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>1515</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G935" t="b">
+        <v>0</v>
+      </c>
+      <c r="H935" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>遠州信用金庫</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G936" t="b">
+        <v>0</v>
+      </c>
+      <c r="H936" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>岐阜信用金庫</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G937" t="b">
+        <v>1</v>
+      </c>
+      <c r="H937" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>高山信用金庫</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G938" t="b">
+        <v>1</v>
+      </c>
+      <c r="H938" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>東濃信用金庫</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G939" t="b">
+        <v>0</v>
+      </c>
+      <c r="H939" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>関信用金庫</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G940" t="b">
+        <v>0</v>
+      </c>
+      <c r="H940" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>八幡信用金庫</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>1538</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G941" t="b">
+        <v>1</v>
+      </c>
+      <c r="H941" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>豊橋信用金庫</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>1551</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G942" t="b">
+        <v>1</v>
+      </c>
+      <c r="H942" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>岡崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>1552</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G943" t="b">
+        <v>1</v>
+      </c>
+      <c r="H943" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>半田信用金庫</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>1555</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G944" t="b">
+        <v>0</v>
+      </c>
+      <c r="H944" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>知多信用金庫</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G945" t="b">
+        <v>1</v>
+      </c>
+      <c r="H945" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>豊川信用金庫</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G946" t="b">
+        <v>0</v>
+      </c>
+      <c r="H946" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>豊田信用金庫</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G947" t="b">
+        <v>0</v>
+      </c>
+      <c r="H947" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>碧海信用金庫</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G948" t="b">
+        <v>0</v>
+      </c>
+      <c r="H948" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>西尾信用金庫</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G949" t="b">
+        <v>1</v>
+      </c>
+      <c r="H949" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>蒲郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G950" t="b">
+        <v>1</v>
+      </c>
+      <c r="H950" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>尾西信用金庫</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G951" t="b">
+        <v>1</v>
+      </c>
+      <c r="H951" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>中日信用金庫</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G952" t="b">
+        <v>1</v>
+      </c>
+      <c r="H952" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>桑名三重信用金庫</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>三重県</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G953" t="b">
+        <v>1</v>
+      </c>
+      <c r="H953" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>滋賀中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G954" t="b">
+        <v>0</v>
+      </c>
+      <c r="H954" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>長浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>1603</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G955" t="b">
+        <v>0</v>
+      </c>
+      <c r="H955" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>湖東信用金庫</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G956" t="b">
+        <v>1</v>
+      </c>
+      <c r="H956" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>西京信用金庫</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>1336</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G957" t="b">
+        <v>0</v>
+      </c>
+      <c r="H957" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>西武信用金庫</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>1341</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G958" t="b">
+        <v>0</v>
+      </c>
+      <c r="H958" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>城南信用金庫</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G959" t="b">
+        <v>1</v>
+      </c>
+      <c r="H959" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>京都信用金庫</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G960" t="b">
+        <v>0</v>
+      </c>
+      <c r="H960" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>京都中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G961" t="b">
+        <v>0</v>
+      </c>
+      <c r="H961" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>京都北都信用金庫</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G962" t="b">
+        <v>1</v>
+      </c>
+      <c r="H962" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>大阪信用金庫</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G963" t="b">
+        <v>1</v>
+      </c>
+      <c r="H963" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>大阪シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G964" t="b">
+        <v>1</v>
+      </c>
+      <c r="H964" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>北おおさか信用金庫</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G965" t="b">
+        <v>1</v>
+      </c>
+      <c r="H965" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>奈良信用金庫</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G966" t="b">
+        <v>1</v>
+      </c>
+      <c r="H966" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>大和信用金庫</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G967" t="b">
+        <v>0</v>
+      </c>
+      <c r="H967" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>奈良中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G968" t="b">
+        <v>0</v>
+      </c>
+      <c r="H968" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>新宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G969" t="b">
+        <v>0</v>
+      </c>
+      <c r="H969" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>きのくに信用金庫</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G970" t="b">
+        <v>0</v>
+      </c>
+      <c r="H970" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>神戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G971" t="b">
+        <v>0</v>
+      </c>
+      <c r="H971" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>播州信用金庫</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G972" t="b">
+        <v>0</v>
+      </c>
+      <c r="H972" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E973" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G973" t="b">
+        <v>0</v>
+      </c>
+      <c r="H973" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>尼崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E974" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G974" t="b">
+        <v>1</v>
+      </c>
+      <c r="H974" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>日新信用金庫</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E975" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G975" t="b">
+        <v>1</v>
+      </c>
+      <c r="H975" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>淡路信用金庫</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E976" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G976" t="b">
+        <v>0</v>
+      </c>
+      <c r="H976" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>但馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E977" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G977" t="b">
+        <v>0</v>
+      </c>
+      <c r="H977" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>西兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E978" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G978" t="b">
+        <v>0</v>
+      </c>
+      <c r="H978" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>但陽信用金庫</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E979" t="n">
+        <v>1696</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G979" t="b">
+        <v>0</v>
+      </c>
+      <c r="H979" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>鳥取信用金庫</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E980" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G980" t="b">
+        <v>0</v>
+      </c>
+      <c r="H980" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>米子信用金庫</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E981" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G981" t="b">
+        <v>0</v>
+      </c>
+      <c r="H981" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>倉吉信用金庫</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E982" t="n">
+        <v>1703</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G982" t="b">
+        <v>0</v>
+      </c>
+      <c r="H982" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>しまね信用金庫</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E983" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G983" t="b">
+        <v>0</v>
+      </c>
+      <c r="H983" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>昭和信用金庫</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E984" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G984" t="b">
+        <v>0</v>
+      </c>
+      <c r="H984" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>世田谷信用金庫</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E985" t="n">
+        <v>1348</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G985" t="b">
+        <v>0</v>
+      </c>
+      <c r="H985" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>日本海信用金庫</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E986" t="n">
+        <v>1711</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G986" t="b">
+        <v>0</v>
+      </c>
+      <c r="H986" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>島根中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E987" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G987" t="b">
+        <v>0</v>
+      </c>
+      <c r="H987" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>おかやま信用金庫</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E988" t="n">
+        <v>1732</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G988" t="b">
+        <v>1</v>
+      </c>
+      <c r="H988" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>水島信用金庫</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E989" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G989" t="b">
+        <v>1</v>
+      </c>
+      <c r="H989" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>津山信用金庫</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E990" t="n">
+        <v>1735</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G990" t="b">
+        <v>1</v>
+      </c>
+      <c r="H990" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>玉島信用金庫</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E991" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G991" t="b">
+        <v>1</v>
+      </c>
+      <c r="H991" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>備北信用金庫</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E992" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G992" t="b">
+        <v>1</v>
+      </c>
+      <c r="H992" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>吉備信用金庫</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E993" t="n">
+        <v>1741</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G993" t="b">
+        <v>0</v>
+      </c>
+      <c r="H993" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>備前日生信用金庫</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E994" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G994" t="b">
+        <v>0</v>
+      </c>
+      <c r="H994" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>広島信用金庫</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E995" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G995" t="b">
+        <v>1</v>
+      </c>
+      <c r="H995" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>呉信用金庫</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E996" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G996" t="b">
+        <v>0</v>
+      </c>
+      <c r="H996" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>西中国信用金庫</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E997" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G997" t="b">
+        <v>1</v>
+      </c>
+      <c r="H997" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>東山口信用金庫</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E998" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G998" t="b">
+        <v>0</v>
+      </c>
+      <c r="H998" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>阿南信用金庫</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E999" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G999" t="b">
+        <v>0</v>
+      </c>
+      <c r="H999" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>高松信用金庫</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E1000" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1000" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1000" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>観音寺信用金庫</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E1001" t="n">
+        <v>1833</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G1001" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1001" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>愛媛信用金庫</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E1002" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1002" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1002" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>宇和島信用金庫</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E1003" t="n">
+        <v>1862</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1003" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1003" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>東予信用金庫</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E1004" t="n">
+        <v>1864</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1004" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1004" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>幡多信用金庫</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E1005" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1005" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1005" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>高知信用金庫</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E1006" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1006" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1006" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>福岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E1007" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1007" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1007" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>福岡ひびき信用金庫</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E1008" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1008" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1008" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>東京信用金庫</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E1009" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1009" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1009" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>城北信用金庫</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E1010" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1010" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1010" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>瀧野川信用金庫</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E1011" t="n">
+        <v>1352</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1011" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1011" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>飯塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E1012" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1012" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1012" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>田川信用金庫</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E1013" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1013" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1013" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>大川信用金庫</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E1014" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1014" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1014" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>遠賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E1015" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1015" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1015" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>佐賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E1016" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1016" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1016" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>たちばな信用金庫</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G1017" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1017" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>熊本第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>1952</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1018" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1018" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>熊本中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>1954</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1019" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1019" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>天草信用金庫</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1020" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1020" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>大分信用金庫</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1021" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1021" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>大分みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1022" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1022" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>宮崎第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1023" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1023" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>高鍋信用金庫</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1024" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1024" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>鹿児島信用金庫</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1025" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1025" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>鹿児島相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1026" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1026" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>コザ信用金庫</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1027" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1027" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>巣鴨信用金庫</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>1356</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1028" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1028" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>青梅信用金庫</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>1358</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1029" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1029" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>多摩信用金庫</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E1030" t="n">
+        <v>1360</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1030" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1030" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>新潟信用金庫</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1031" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1031" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1031" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>長岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1032" t="n">
+        <v>1371</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1032" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1032" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>三条信用金庫</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1033" t="n">
+        <v>1373</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1033" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1033" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>柏崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1034" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1034" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1034" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>上越信用金庫</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1035" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1035" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1035" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>新井信用金庫</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1036" t="n">
+        <v>1377</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1036" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1036" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>加茂信用金庫</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E1037" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1037" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1037" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/yokin_rate.xlsx
+++ b/yokin_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2591"/>
+  <dimension ref="A1:H2850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87995,6 +87995,8758 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2592" t="inlineStr"/>
+      <c r="F2592" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2592" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2592" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>三菱UFJ銀行</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2593" t="inlineStr"/>
+      <c r="F2593" t="inlineStr"/>
+      <c r="G2593" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2593" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>あおぞら銀</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2594" t="inlineStr"/>
+      <c r="F2594" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2594" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2594" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>イオン銀行</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2595" t="inlineStr"/>
+      <c r="F2595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2595" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2595" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>ＳＢＪ銀行</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2596" t="inlineStr"/>
+      <c r="F2596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2596" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2596" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>auじぶん銀行</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2597" t="inlineStr"/>
+      <c r="F2597" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2597" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2597" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>北洋銀行</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>501</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2598" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2598" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>きらやか銀行</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2599" t="n">
+        <v>508</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2599" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2599" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>北日本銀行</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2600" t="n">
+        <v>509</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2600" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2600" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>GMOあおぞらネット銀行</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2601" t="inlineStr"/>
+      <c r="F2601" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2601" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2601" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>仙台銀行</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>512</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2602" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2602" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>福島銀行</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>513</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2603" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2603" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>東和銀行</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>516</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2604" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2604" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>栃木銀行</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>517</v>
+      </c>
+      <c r="F2605" t="inlineStr"/>
+      <c r="G2605" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2605" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>京葉銀行</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>522</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2606" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2606" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>東日本銀行</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2607" t="n">
+        <v>525</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2607" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2607" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>東京スター銀行</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2608" t="n">
+        <v>526</v>
+      </c>
+      <c r="F2608" t="inlineStr"/>
+      <c r="G2608" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2608" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>大光銀行</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2609" t="n">
+        <v>532</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2609" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2609" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>長野銀行</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2610" t="n">
+        <v>533</v>
+      </c>
+      <c r="F2610" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2610" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2610" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>富山第一銀行</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2611" t="n">
+        <v>534</v>
+      </c>
+      <c r="F2611" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2611" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2611" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>福邦銀行</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2612" t="n">
+        <v>537</v>
+      </c>
+      <c r="F2612" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2612" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2612" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>静岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2613" t="n">
+        <v>538</v>
+      </c>
+      <c r="F2613" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2613" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2613" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>愛知銀行</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2614" t="n">
+        <v>542</v>
+      </c>
+      <c r="F2614" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2614" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2614" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>名古屋銀行</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2615" t="n">
+        <v>543</v>
+      </c>
+      <c r="F2615" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2615" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2615" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>中京銀行</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2616" t="n">
+        <v>544</v>
+      </c>
+      <c r="F2616" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2616" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2616" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>みなと銀行</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2617" t="n">
+        <v>562</v>
+      </c>
+      <c r="F2617" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2617" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2617" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>島根銀行</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E2618" t="n">
+        <v>565</v>
+      </c>
+      <c r="F2618" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2618" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2618" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>トマト銀行</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2619" t="n">
+        <v>566</v>
+      </c>
+      <c r="F2619" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2619" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2619" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>もみじ銀行</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E2620" t="n">
+        <v>569</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2620" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2620" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>西京銀行</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E2621" t="n">
+        <v>570</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2621" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2621" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>徳島大正銀行</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E2622" t="n">
+        <v>572</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2622" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2622" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>香川銀行</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>573</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2623" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2623" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>愛媛銀行</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>576</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2624" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2624" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>福岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>582</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2625" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2625" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>佐賀共栄銀行</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>583</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2626" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2626" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>長崎銀行</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E2627" t="n">
+        <v>585</v>
+      </c>
+      <c r="F2627" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2627" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2627" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>熊本銀行</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E2628" t="n">
+        <v>587</v>
+      </c>
+      <c r="F2628" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2628" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2628" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>住信SBIネット銀行</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2629" t="inlineStr"/>
+      <c r="F2629" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2629" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2629" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>セブン銀行</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2630" t="inlineStr"/>
+      <c r="F2630" t="inlineStr"/>
+      <c r="G2630" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2630" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>みずほ銀行</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2631" t="inlineStr"/>
+      <c r="F2631" t="inlineStr"/>
+      <c r="G2631" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2631" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>豊和銀行</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E2632" t="n">
+        <v>590</v>
+      </c>
+      <c r="F2632" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2632" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2632" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>宮崎太陽銀行</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E2633" t="n">
+        <v>591</v>
+      </c>
+      <c r="F2633" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2633" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2633" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>南日本銀行</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E2634" t="n">
+        <v>594</v>
+      </c>
+      <c r="F2634" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2634" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2634" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>沖縄海邦銀行</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>596</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2635" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2635" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>福江信用組合</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2636" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2636" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>大分県信用組合</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E2637" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F2637" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2637" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2637" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>宮崎県南部信用組合</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E2638" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F2638" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G2638" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2638" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>鹿児島興業信用組合</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E2639" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F2639" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2639" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2639" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>北海道信用金庫</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2640" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F2640" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2640" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2640" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>室蘭信用金庫</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2641" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F2641" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2641" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2641" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2642" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F2642" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2642" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2642" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>苫小牧信用金庫</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2643" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2643" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>北門信用金庫</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2644" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2644" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>伊達信用金庫</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2645" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2645" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>北空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2646" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2646" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>日高信用金庫</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2647" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F2647" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2647" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2647" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>道南うみ街信用金庫</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2648" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2648" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>旭川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2649" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2649" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>稚内信用金庫</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2650" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2650" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>留萌信用金庫</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2651" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2651" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>北星信用金庫</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2652" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2652" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>帯広信用金庫</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2653" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2653" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>釧路信用金庫</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2654" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2654" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>大地みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2655" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2655" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>SMBC</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2656" t="inlineStr"/>
+      <c r="F2656" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2656" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2656" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>りそな</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2657" t="inlineStr"/>
+      <c r="F2657" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2657" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2657" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>ソニー銀行</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2658" t="inlineStr"/>
+      <c r="F2658" t="inlineStr"/>
+      <c r="G2658" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2658" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>北見信用金庫</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2659" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F2659" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2659" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2659" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>網走信用金庫</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2660" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F2660" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2660" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2660" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>遠軽信用金庫</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2661" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F2661" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2661" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2661" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>東奥信用金庫</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E2662" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F2662" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2662" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2662" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>青い森信用金庫</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E2663" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F2663" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2663" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2663" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>秋田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2664" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2664" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>羽後信用金庫</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2665" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2665" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>山形信用金庫</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2666" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2666" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>米沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>1141</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2667" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2667" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>鶴岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2668" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2668" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>盛岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2669" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2669" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>宮古信用金庫</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2670" t="n">
+        <v>1152</v>
+      </c>
+      <c r="F2670" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2670" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2670" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>一関信用金庫</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2671" t="n">
+        <v>1153</v>
+      </c>
+      <c r="F2671" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2671" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2671" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>北上信用金庫</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2672" t="n">
+        <v>1154</v>
+      </c>
+      <c r="F2672" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2672" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2672" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>杜の都信用金庫</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E2673" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F2673" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2673" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2673" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>郡山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2674" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2674" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2674" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>白河信用金庫</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2675" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2675" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2675" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>ひまわり信用金庫</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2676" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2676" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2676" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>あぶくま信用金庫</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2677" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2677" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2677" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>福島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2678" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2678" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2678" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>大和ネクスト銀行</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2679" t="inlineStr"/>
+      <c r="F2679" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2679" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2679" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>みんなの銀行</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2680" t="inlineStr"/>
+      <c r="F2680" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2680" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2680" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>楽天銀行</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2681" t="inlineStr"/>
+      <c r="F2681" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2681" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2681" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>桐生信用金庫</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2682" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F2682" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2682" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2682" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>アイオー信用金庫</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2683" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F2683" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2683" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2683" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>利根郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2684" t="n">
+        <v>1208</v>
+      </c>
+      <c r="F2684" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2684" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2684" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>北群馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2685" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2685" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F2685" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2685" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2685" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>しののめ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2686" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2686" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>足利小山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2687" t="n">
+        <v>1221</v>
+      </c>
+      <c r="F2687" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2687" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2687" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>栃木信用金庫</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2688" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F2688" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2688" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2688" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>鹿沼相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2689" t="n">
+        <v>1223</v>
+      </c>
+      <c r="F2689" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2689" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2689" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>佐野信用金庫</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2690" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F2690" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2690" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2690" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>大田原信用金庫</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2691" t="n">
+        <v>1225</v>
+      </c>
+      <c r="F2691" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2691" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2691" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>烏山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2692" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F2692" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2692" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2692" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>水戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E2693" t="n">
+        <v>1240</v>
+      </c>
+      <c r="F2693" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2693" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2693" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>結城信用金庫</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>1242</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2694" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2694" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>埼玉縣信用金庫</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2695" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2695" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>川口信用金庫</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2696" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2696" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>青木信用金庫</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>1252</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2697" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2697" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>飯能信用金庫</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>1253</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2698" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2698" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>千葉信用金庫</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2699" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2699" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>銚子信用金庫</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>1261</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2700" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2700" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>館山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>113</v>
+      </c>
+      <c r="G2701" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2701" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>佐原信用金庫</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>1267</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2702" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2702" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>横浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2703" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2703" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>湘南信用金庫</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2704" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2704" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>川崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2705" t="n">
+        <v>1283</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2705" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2705" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>平塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2706" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2706" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>さがみ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>1288</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2707" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2707" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2708" t="inlineStr"/>
+      <c r="F2708" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2708" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2708" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>UI銀行</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2709" t="inlineStr"/>
+      <c r="F2709" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2709" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2709" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>中南信用金庫</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2710" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2710" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2710" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>朝日信用金庫</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2711" t="n">
+        <v>1303</v>
+      </c>
+      <c r="F2711" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2711" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2711" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>興産信用金庫</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2712" t="n">
+        <v>1305</v>
+      </c>
+      <c r="F2712" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2712" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2712" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>さわやか信用金庫</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2713" t="n">
+        <v>1310</v>
+      </c>
+      <c r="F2713" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2713" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2713" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>東京シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2714" t="n">
+        <v>1311</v>
+      </c>
+      <c r="F2714" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2714" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2714" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>芝信用金庫</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2715" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F2715" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2715" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2715" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>紀陽銀行</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E2716" t="n">
+        <v>163</v>
+      </c>
+      <c r="F2716" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2716" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2716" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>但馬銀行</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2717" t="n">
+        <v>164</v>
+      </c>
+      <c r="F2717" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2717" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2717" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>東榮信用金庫</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2718" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F2718" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2718" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2718" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>亀有信用金庫</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2719" t="n">
+        <v>1323</v>
+      </c>
+      <c r="F2719" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2719" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2719" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>甲府信用金庫</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E2720" t="n">
+        <v>1385</v>
+      </c>
+      <c r="F2720" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2720" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2720" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>山梨信用金庫</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E2721" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F2721" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2721" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2721" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>長野信用金庫</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2722" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F2722" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2722" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2722" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>松本信用金庫</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2723" t="n">
+        <v>1391</v>
+      </c>
+      <c r="F2723" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2723" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2723" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>諏訪信用金庫</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2724" t="n">
+        <v>1393</v>
+      </c>
+      <c r="F2724" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2724" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2724" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>飯田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2725" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F2725" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2725" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2725" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>アルプス中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2726" t="n">
+        <v>1396</v>
+      </c>
+      <c r="F2726" t="inlineStr"/>
+      <c r="G2726" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2726" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>富山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2727" t="n">
+        <v>1401</v>
+      </c>
+      <c r="F2727" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2727" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2727" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>新湊信用金庫</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2728" t="n">
+        <v>1404</v>
+      </c>
+      <c r="F2728" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2728" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2728" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>にいかわ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2729" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F2729" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2729" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2729" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>氷見伏木信用金庫</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2730" t="n">
+        <v>1406</v>
+      </c>
+      <c r="F2730" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2730" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2730" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>石動信用金庫</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2731" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F2731" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2731" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2731" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>金沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2732" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F2732" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2732" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2732" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>のと共栄信用金庫</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2733" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F2733" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2733" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2733" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>はくさん信用金庫</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2734" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F2734" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2734" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2734" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>興能信用金庫</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2735" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2735" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F2735" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2735" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2735" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>福井信用金庫</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2736" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F2736" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2736" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2736" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>敦賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2737" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F2737" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2737" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2737" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>越前信用金庫</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2738" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F2738" t="n">
+        <v>300</v>
+      </c>
+      <c r="G2738" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2738" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>しずおか焼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2739" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F2739" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2739" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2739" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>静清信用金庫</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2740" t="n">
+        <v>1502</v>
+      </c>
+      <c r="F2740" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2740" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2740" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>浜松磐田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2741" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F2741" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2741" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2741" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>沼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2742" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F2742" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2742" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2742" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>三島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2743" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F2743" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2743" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2743" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>富士宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2744" t="n">
+        <v>1507</v>
+      </c>
+      <c r="F2744" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2744" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2744" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>島田掛川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2745" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2745" t="n">
+        <v>1513</v>
+      </c>
+      <c r="F2745" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2745" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2745" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>小松川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2746" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F2746" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2746" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2746" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>東京三協信用金庫</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2747" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F2747" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2747" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2747" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>富士信用金庫</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2748" t="n">
+        <v>1515</v>
+      </c>
+      <c r="F2748" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2748" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2748" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>遠州信用金庫</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2749" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2749" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F2749" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2749" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2749" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>岐阜信用金庫</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E2750" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F2750" t="inlineStr"/>
+      <c r="G2750" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2750" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>高山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E2751" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F2751" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2751" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2751" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>東濃信用金庫</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E2752" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F2752" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2752" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2752" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>関信用金庫</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E2753" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F2753" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2753" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2753" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>八幡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E2754" t="n">
+        <v>1538</v>
+      </c>
+      <c r="F2754" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2754" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2754" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>豊橋信用金庫</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2755" t="n">
+        <v>1551</v>
+      </c>
+      <c r="F2755" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2755" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2755" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>岡崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2756" t="n">
+        <v>1552</v>
+      </c>
+      <c r="F2756" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2756" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2756" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>半田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2757" t="n">
+        <v>1555</v>
+      </c>
+      <c r="F2757" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2757" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2757" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>知多信用金庫</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2758" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F2758" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2758" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2758" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>豊川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2759" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F2759" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2759" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2759" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>豊田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2760" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F2760" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2760" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2760" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>碧海信用金庫</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2761" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2761" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F2761" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2761" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2761" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>西尾信用金庫</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2762" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2762" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F2762" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2762" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2762" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>蒲郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2763" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2763" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F2763" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2763" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2763" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>尾西信用金庫</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2764" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2764" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F2764" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2764" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2764" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>中日信用金庫</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2765" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2765" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F2765" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2765" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2765" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>桑名三重信用金庫</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2766" t="inlineStr">
+        <is>
+          <t>三重県</t>
+        </is>
+      </c>
+      <c r="E2766" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F2766" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2766" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2766" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>滋賀中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2767" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2767" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E2767" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F2767" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2767" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2767" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>長浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2768" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E2768" t="n">
+        <v>1603</v>
+      </c>
+      <c r="F2768" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2768" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2768" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>湖東信用金庫</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2769" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E2769" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F2769" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2769" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2769" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>西京信用金庫</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2770" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2770" t="n">
+        <v>1336</v>
+      </c>
+      <c r="F2770" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2770" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2770" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>西武信用金庫</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2771" t="n">
+        <v>1341</v>
+      </c>
+      <c r="F2771" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2771" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2771" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>城南信用金庫</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2772" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F2772" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2772" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2772" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>京都信用金庫</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2773" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E2773" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F2773" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2773" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2773" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>京都中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2774" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E2774" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F2774" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2774" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2774" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>京都北都信用金庫</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2775" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E2775" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F2775" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2775" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2775" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>大阪信用金庫</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2776" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E2776" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F2776" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2776" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2776" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>大阪シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2777" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E2777" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F2777" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2777" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2777" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>北おおさか信用金庫</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2778" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E2778" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F2778" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2778" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2778" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>奈良信用金庫</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E2779" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F2779" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2779" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2779" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>大和信用金庫</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2780" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E2780" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F2780" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2780" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2780" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>奈良中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2781" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E2781" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F2781" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2781" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2781" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>新宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2782" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E2782" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F2782" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2782" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2782" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>きのくに信用金庫</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2783" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E2783" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F2783" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2783" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2783" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>神戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2784" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2784" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F2784" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2784" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2784" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>播州信用金庫</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2785" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2785" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F2785" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2785" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2785" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2786" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2786" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F2786" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2786" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2786" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>尼崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2787" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2787" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F2787" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2787" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2787" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>日新信用金庫</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2788" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F2788" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2788" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2788" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>淡路信用金庫</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2789" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2789" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F2789" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2789" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2789" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>但馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2790" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2790" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F2790" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2790" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2790" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>西兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2791" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F2791" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2791" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2791" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>但陽信用金庫</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2792" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2792" t="n">
+        <v>1696</v>
+      </c>
+      <c r="F2792" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2792" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2792" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>鳥取信用金庫</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2793" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E2793" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F2793" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2793" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2793" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>米子信用金庫</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2794" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E2794" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F2794" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2794" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2794" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>倉吉信用金庫</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2795" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E2795" t="n">
+        <v>1703</v>
+      </c>
+      <c r="F2795" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2795" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2795" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>しまね信用金庫</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2796" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E2796" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F2796" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2796" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2796" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>昭和信用金庫</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2797" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2797" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F2797" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2797" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2797" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>世田谷信用金庫</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2798" t="n">
+        <v>1348</v>
+      </c>
+      <c r="F2798" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2798" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2798" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>日本海信用金庫</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2799" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E2799" t="n">
+        <v>1711</v>
+      </c>
+      <c r="F2799" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2799" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2799" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>島根中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2800" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E2800" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F2800" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2800" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2800" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>おかやま信用金庫</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2801" t="n">
+        <v>1732</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2801" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2801" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>水島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2802" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F2802" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2802" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2802" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>津山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2803" t="n">
+        <v>1735</v>
+      </c>
+      <c r="F2803" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2803" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2803" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>玉島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2804" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F2804" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2804" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2804" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>備北信用金庫</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2805" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2805" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>吉備信用金庫</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>1741</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2806" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2806" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>備前日生信用金庫</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2807" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2807" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>広島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2808" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2808" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>呉信用金庫</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2809" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2809" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>西中国信用金庫</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E2810" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F2810" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2810" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2810" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>東山口信用金庫</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2811" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E2811" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F2811" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2811" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2811" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>阿南信用金庫</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2812" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E2812" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F2812" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2812" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2812" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>高松信用金庫</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2813" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E2813" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F2813" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2813" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2813" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>観音寺信用金庫</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2814" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E2814" t="n">
+        <v>1833</v>
+      </c>
+      <c r="F2814" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2814" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2814" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>愛媛信用金庫</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2815" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E2815" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2815" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2815" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>宇和島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2816" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E2816" t="n">
+        <v>1862</v>
+      </c>
+      <c r="F2816" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2816" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2816" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>東予信用金庫</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E2817" t="n">
+        <v>1864</v>
+      </c>
+      <c r="F2817" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2817" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2817" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>幡多信用金庫</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2818" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E2818" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F2818" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2818" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2818" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>高知信用金庫</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2819" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E2819" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F2819" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2819" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2819" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>福岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2820" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2820" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F2820" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2820" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2820" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>福岡ひびき信用金庫</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2821" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2821" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F2821" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2821" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2821" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>東京信用金庫</t>
+        </is>
+      </c>
+      <c r="C2822" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2822" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2822" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F2822" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2822" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2822" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>城北信用金庫</t>
+        </is>
+      </c>
+      <c r="C2823" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2823" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2823" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F2823" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2823" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2823" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>瀧野川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2824" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2824" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2824" t="n">
+        <v>1352</v>
+      </c>
+      <c r="F2824" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2824" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2824" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>飯塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C2825" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2825" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2825" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F2825" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2825" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2825" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>田川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2826" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2826" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2826" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F2826" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2826" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2826" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>大川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2827" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2827" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2827" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F2827" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2827" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2827" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>遠賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C2828" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2828" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2828" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F2828" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2828" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2828" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>佐賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C2829" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2829" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E2829" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F2829" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2829" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2829" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>たちばな信用金庫</t>
+        </is>
+      </c>
+      <c r="C2830" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2830" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E2830" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F2830" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2830" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2830" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>熊本第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C2831" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2831" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E2831" t="n">
+        <v>1952</v>
+      </c>
+      <c r="F2831" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2831" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2831" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>熊本中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2832" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2832" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E2832" t="n">
+        <v>1954</v>
+      </c>
+      <c r="F2832" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2832" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2832" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>天草信用金庫</t>
+        </is>
+      </c>
+      <c r="C2833" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2833" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E2833" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F2833" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2833" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2833" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>大分信用金庫</t>
+        </is>
+      </c>
+      <c r="C2834" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2834" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E2834" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F2834" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2834" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2834" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>大分みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2835" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E2835" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F2835" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2835" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2835" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>宮崎第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C2836" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2836" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E2836" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F2836" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2836" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2836" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>高鍋信用金庫</t>
+        </is>
+      </c>
+      <c r="C2837" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2837" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E2837" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F2837" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2837" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2837" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>鹿児島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2838" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2838" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E2838" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F2838" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2838" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2838" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>鹿児島相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C2839" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2839" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E2839" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F2839" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2839" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2839" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>コザ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2840" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2840" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E2840" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F2840" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2840" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2840" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>巣鴨信用金庫</t>
+        </is>
+      </c>
+      <c r="C2841" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2841" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2841" t="n">
+        <v>1356</v>
+      </c>
+      <c r="F2841" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2841" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2841" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>青梅信用金庫</t>
+        </is>
+      </c>
+      <c r="C2842" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2842" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2842" t="n">
+        <v>1358</v>
+      </c>
+      <c r="F2842" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2842" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2842" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>多摩信用金庫</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2843" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2843" t="n">
+        <v>1360</v>
+      </c>
+      <c r="F2843" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2843" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2843" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>新潟信用金庫</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2844" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2844" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F2844" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2844" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2844" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>長岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2845" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2845" t="n">
+        <v>1371</v>
+      </c>
+      <c r="F2845" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2845" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2845" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>三条信用金庫</t>
+        </is>
+      </c>
+      <c r="C2846" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2846" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2846" t="n">
+        <v>1373</v>
+      </c>
+      <c r="F2846" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2846" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2846" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>柏崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C2847" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2847" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2847" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F2847" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2847" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2847" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>上越信用金庫</t>
+        </is>
+      </c>
+      <c r="C2848" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2848" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2848" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F2848" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2848" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2848" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>新井信用金庫</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2849" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2849" t="n">
+        <v>1377</v>
+      </c>
+      <c r="F2849" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2849" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2849" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>加茂信用金庫</t>
+        </is>
+      </c>
+      <c r="C2850" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2850" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2850" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F2850" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2850" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2850" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/yokin_rate.xlsx
+++ b/yokin_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2850"/>
+  <dimension ref="A1:H3109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96747,6 +96747,8756 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C2851" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2851" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2851" t="inlineStr"/>
+      <c r="F2851" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2851" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>三菱UFJ銀行</t>
+        </is>
+      </c>
+      <c r="C2852" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2852" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2852" t="inlineStr"/>
+      <c r="F2852" t="inlineStr"/>
+      <c r="G2852" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2852" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>あおぞら銀</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2853" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2853" t="inlineStr"/>
+      <c r="F2853" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2853" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2853" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>イオン銀行</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2854" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2854" t="inlineStr"/>
+      <c r="F2854" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2854" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2854" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>ＳＢＪ銀行</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2855" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2855" t="inlineStr"/>
+      <c r="F2855" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2855" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2855" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>auじぶん銀行</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2856" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2856" t="inlineStr"/>
+      <c r="F2856" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2856" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2856" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>北洋銀行</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2857" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2857" t="n">
+        <v>501</v>
+      </c>
+      <c r="F2857" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2857" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2857" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>きらやか銀行</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2858" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2858" t="n">
+        <v>508</v>
+      </c>
+      <c r="F2858" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2858" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2858" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>北日本銀行</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2859" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2859" t="n">
+        <v>509</v>
+      </c>
+      <c r="F2859" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2859" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2859" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>GMOあおぞらネット銀行</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2860" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2860" t="inlineStr"/>
+      <c r="F2860" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2860" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2860" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>仙台銀行</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2861" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E2861" t="n">
+        <v>512</v>
+      </c>
+      <c r="F2861" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2861" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2861" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>福島銀行</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2862" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2862" t="n">
+        <v>513</v>
+      </c>
+      <c r="F2862" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2862" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2862" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>東和銀行</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2863" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2863" t="n">
+        <v>516</v>
+      </c>
+      <c r="F2863" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2863" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2863" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>栃木銀行</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2864" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2864" t="n">
+        <v>517</v>
+      </c>
+      <c r="F2864" t="inlineStr"/>
+      <c r="G2864" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2864" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>京葉銀行</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2865" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2865" t="n">
+        <v>522</v>
+      </c>
+      <c r="F2865" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2865" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2865" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>東日本銀行</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2866" t="n">
+        <v>525</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2866" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2866" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>東京スター銀行</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2867" t="n">
+        <v>526</v>
+      </c>
+      <c r="F2867" t="inlineStr"/>
+      <c r="G2867" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2867" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>大光銀行</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E2868" t="n">
+        <v>532</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2868" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2868" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>長野銀行</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2869" t="n">
+        <v>533</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2869" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2869" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>富山第一銀行</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2870" t="n">
+        <v>534</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2870" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2870" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>福邦銀行</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2871" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2871" t="n">
+        <v>537</v>
+      </c>
+      <c r="F2871" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2871" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2871" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>静岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2872" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2872" t="n">
+        <v>538</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2872" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2872" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>愛知銀行</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2873" t="n">
+        <v>542</v>
+      </c>
+      <c r="F2873" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2873" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2873" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>名古屋銀行</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2874" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2874" t="n">
+        <v>543</v>
+      </c>
+      <c r="F2874" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2874" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2874" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>中京銀行</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2875" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E2875" t="n">
+        <v>544</v>
+      </c>
+      <c r="F2875" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2875" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2875" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>みなと銀行</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2876" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2876" t="n">
+        <v>562</v>
+      </c>
+      <c r="F2876" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2876" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2876" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>島根銀行</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2877" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E2877" t="n">
+        <v>565</v>
+      </c>
+      <c r="F2877" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2877" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2877" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>トマト銀行</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2878" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E2878" t="n">
+        <v>566</v>
+      </c>
+      <c r="F2878" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2878" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2878" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>もみじ銀行</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E2879" t="n">
+        <v>569</v>
+      </c>
+      <c r="F2879" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2879" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2879" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>西京銀行</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2880" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E2880" t="n">
+        <v>570</v>
+      </c>
+      <c r="F2880" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2880" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2880" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>徳島大正銀行</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2881" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E2881" t="n">
+        <v>572</v>
+      </c>
+      <c r="F2881" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2881" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2881" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>香川銀行</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2882" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E2882" t="n">
+        <v>573</v>
+      </c>
+      <c r="F2882" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2882" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2882" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>愛媛銀行</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2883" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E2883" t="n">
+        <v>576</v>
+      </c>
+      <c r="F2883" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2883" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2883" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>福岡中央銀行</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2884" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E2884" t="n">
+        <v>582</v>
+      </c>
+      <c r="F2884" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2884" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2884" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>佐賀共栄銀行</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2885" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E2885" t="n">
+        <v>583</v>
+      </c>
+      <c r="F2885" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2885" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2885" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>長崎銀行</t>
+        </is>
+      </c>
+      <c r="C2886" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2886" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E2886" t="n">
+        <v>585</v>
+      </c>
+      <c r="F2886" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2886" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2886" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>熊本銀行</t>
+        </is>
+      </c>
+      <c r="C2887" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2887" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E2887" t="n">
+        <v>587</v>
+      </c>
+      <c r="F2887" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2887" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2887" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>住信SBIネット銀行</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2888" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2888" t="inlineStr"/>
+      <c r="F2888" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2888" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2888" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>セブン銀行</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2889" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2889" t="inlineStr"/>
+      <c r="F2889" t="inlineStr"/>
+      <c r="G2889" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2889" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>みずほ銀行</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2890" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2890" t="inlineStr"/>
+      <c r="F2890" t="inlineStr"/>
+      <c r="G2890" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>豊和銀行</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2891" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E2891" t="n">
+        <v>590</v>
+      </c>
+      <c r="F2891" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2891" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2891" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>宮崎太陽銀行</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2892" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E2892" t="n">
+        <v>591</v>
+      </c>
+      <c r="F2892" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2892" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2892" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>南日本銀行</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2893" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E2893" t="n">
+        <v>594</v>
+      </c>
+      <c r="F2893" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2893" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2893" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>沖縄海邦銀行</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr">
+        <is>
+          <t>第二地方銀行</t>
+        </is>
+      </c>
+      <c r="D2894" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E2894" t="n">
+        <v>596</v>
+      </c>
+      <c r="F2894" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2894" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2894" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>福江信用組合</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2895" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E2895" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F2895" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2895" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2895" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>大分県信用組合</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2896" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E2896" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F2896" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2896" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2896" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>宮崎県南部信用組合</t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2897" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E2897" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F2897" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G2897" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2897" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>鹿児島興業信用組合</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr">
+        <is>
+          <t>信用組合</t>
+        </is>
+      </c>
+      <c r="D2898" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E2898" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F2898" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2898" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2898" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>北海道信用金庫</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2899" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2899" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F2899" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2899" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2899" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>室蘭信用金庫</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2900" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2900" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F2900" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2900" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2900" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2901" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2901" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F2901" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2901" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2901" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>苫小牧信用金庫</t>
+        </is>
+      </c>
+      <c r="C2902" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2902" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2902" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F2902" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2902" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2902" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>北門信用金庫</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2903" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2903" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F2903" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2903" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2903" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>伊達信用金庫</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2904" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2904" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F2904" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2904" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2904" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>北空知信用金庫</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2905" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2905" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F2905" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2905" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2905" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>日高信用金庫</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2906" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2906" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2906" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2906" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>道南うみ街信用金庫</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2907" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2907" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2907" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>旭川信用金庫</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2908" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2908" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2908" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2908" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>稚内信用金庫</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2909" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2909" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F2909" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2909" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2909" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>留萌信用金庫</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2910" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2910" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F2910" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2910" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2910" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>北星信用金庫</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2911" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2911" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F2911" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2911" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2911" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>帯広信用金庫</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2912" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2912" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F2912" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2912" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2912" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>釧路信用金庫</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2913" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2913" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F2913" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2913" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2913" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>大地みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2914" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F2914" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2914" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2914" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>SMBC</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2915" t="inlineStr"/>
+      <c r="F2915" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2915" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2915" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>りそな</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>都銀</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2916" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2916" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>ソニー銀行</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2917" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2917" t="inlineStr"/>
+      <c r="F2917" t="inlineStr"/>
+      <c r="G2917" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2917" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>北見信用金庫</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2918" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2918" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2918" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>網走信用金庫</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2919" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2919" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2919" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>遠軽信用金庫</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2920" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E2920" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2920" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2920" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>東奥信用金庫</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2921" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E2921" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2921" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2921" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>青い森信用金庫</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2922" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="E2922" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2922" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2922" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>秋田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2923" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E2923" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2923" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2923" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>羽後信用金庫</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2924" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="E2924" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2924" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2924" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>山形信用金庫</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2925" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2925" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F2925" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2925" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2925" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>米沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2926" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2926" t="n">
+        <v>1141</v>
+      </c>
+      <c r="F2926" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2926" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2926" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>鶴岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2927" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="E2927" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F2927" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2927" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2927" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>盛岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2928" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2928" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F2928" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2928" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2928" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>宮古信用金庫</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2929" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2929" t="n">
+        <v>1152</v>
+      </c>
+      <c r="F2929" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2929" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2929" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>一関信用金庫</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2930" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2930" t="n">
+        <v>1153</v>
+      </c>
+      <c r="F2930" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2930" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2930" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>北上信用金庫</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2931" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="E2931" t="n">
+        <v>1154</v>
+      </c>
+      <c r="F2931" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2931" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2931" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>杜の都信用金庫</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2932" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="E2932" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F2932" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2932" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2932" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>郡山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2933" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2933" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F2933" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2933" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2933" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>白河信用金庫</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2934" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2934" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F2934" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2934" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2934" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>ひまわり信用金庫</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2935" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2935" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F2935" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2935" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2935" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>あぶくま信用金庫</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2936" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2936" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F2936" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2936" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2936" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>福島信用金庫</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2937" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="E2937" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F2937" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2937" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2937" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>大和ネクスト銀行</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2938" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2938" t="inlineStr"/>
+      <c r="F2938" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2938" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2938" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>みんなの銀行</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2939" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2939" t="inlineStr"/>
+      <c r="F2939" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2939" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2939" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>楽天銀行</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2940" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2940" t="inlineStr"/>
+      <c r="F2940" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2940" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2940" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>桐生信用金庫</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2941" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2941" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F2941" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2941" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2941" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>アイオー信用金庫</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2942" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2942" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F2942" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2942" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2942" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>利根郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2943" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2943" t="n">
+        <v>1208</v>
+      </c>
+      <c r="F2943" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2943" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2943" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>北群馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2944" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2944" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F2944" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2944" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2944" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>しののめ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2945" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="E2945" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F2945" t="inlineStr"/>
+      <c r="G2945" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2945" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>足利小山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2946" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2946" t="n">
+        <v>1221</v>
+      </c>
+      <c r="F2946" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2946" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2946" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>栃木信用金庫</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2947" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2947" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F2947" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2947" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2947" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>鹿沼相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2948" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2948" t="n">
+        <v>1223</v>
+      </c>
+      <c r="F2948" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2948" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2948" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>佐野信用金庫</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2949" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2949" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F2949" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2949" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2949" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>大田原信用金庫</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2950" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2950" t="n">
+        <v>1225</v>
+      </c>
+      <c r="F2950" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2950" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2950" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>烏山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2951" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="E2951" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F2951" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2951" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2951" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>水戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2952" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E2952" t="n">
+        <v>1240</v>
+      </c>
+      <c r="F2952" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2952" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2952" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>結城信用金庫</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2953" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="E2953" t="n">
+        <v>1242</v>
+      </c>
+      <c r="F2953" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2953" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2953" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>埼玉縣信用金庫</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2954" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F2954" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2954" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2954" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>川口信用金庫</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2955" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2955" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F2955" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2955" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2955" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>青木信用金庫</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2956" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2956" t="n">
+        <v>1252</v>
+      </c>
+      <c r="F2956" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2956" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2956" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>飯能信用金庫</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2957" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="E2957" t="n">
+        <v>1253</v>
+      </c>
+      <c r="F2957" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2957" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2957" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>千葉信用金庫</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2958" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2958" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F2958" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2958" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2958" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>銚子信用金庫</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2959" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2959" t="n">
+        <v>1261</v>
+      </c>
+      <c r="F2959" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2959" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2959" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>館山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2960" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2960" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F2960" t="n">
+        <v>113</v>
+      </c>
+      <c r="G2960" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2960" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>佐原信用金庫</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2961" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="E2961" t="n">
+        <v>1267</v>
+      </c>
+      <c r="F2961" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2961" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2961" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>横浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2962" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2962" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F2962" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2962" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2962" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>湘南信用金庫</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2963" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2963" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F2963" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2963" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2963" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>川崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2964" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2964" t="n">
+        <v>1283</v>
+      </c>
+      <c r="F2964" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2964" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2964" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>平塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2965" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2965" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F2965" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2965" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2965" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>さがみ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2966" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2966" t="n">
+        <v>1288</v>
+      </c>
+      <c r="F2966" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2966" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2966" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>ゆうちょ銀行</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2967" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2967" t="inlineStr"/>
+      <c r="F2967" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2967" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2967" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>UI銀行</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr">
+        <is>
+          <t>新業態</t>
+        </is>
+      </c>
+      <c r="D2968" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="E2968" t="inlineStr"/>
+      <c r="F2968" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2968" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2968" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>中南信用金庫</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2969" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="E2969" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F2969" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2969" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2969" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>朝日信用金庫</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2970" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2970" t="n">
+        <v>1303</v>
+      </c>
+      <c r="F2970" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2970" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2970" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>興産信用金庫</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2971" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2971" t="n">
+        <v>1305</v>
+      </c>
+      <c r="F2971" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2971" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2971" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>さわやか信用金庫</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2972" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2972" t="n">
+        <v>1310</v>
+      </c>
+      <c r="F2972" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2972" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2972" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>東京シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2973" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2973" t="n">
+        <v>1311</v>
+      </c>
+      <c r="F2973" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2973" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2973" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>芝信用金庫</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2974" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2974" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F2974" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2974" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2974" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>紀陽銀行</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D2975" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E2975" t="n">
+        <v>163</v>
+      </c>
+      <c r="F2975" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2975" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2975" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>但馬銀行</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr">
+        <is>
+          <t>地方銀行</t>
+        </is>
+      </c>
+      <c r="D2976" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E2976" t="n">
+        <v>164</v>
+      </c>
+      <c r="F2976" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2976" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2976" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>東榮信用金庫</t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2977" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2977" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F2977" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2977" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2977" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>亀有信用金庫</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2978" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E2978" t="n">
+        <v>1323</v>
+      </c>
+      <c r="F2978" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2978" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2978" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>甲府信用金庫</t>
+        </is>
+      </c>
+      <c r="C2979" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2979" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E2979" t="n">
+        <v>1385</v>
+      </c>
+      <c r="F2979" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2979" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2979" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>山梨信用金庫</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2980" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="E2980" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F2980" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2980" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2980" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>長野信用金庫</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2981" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2981" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F2981" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2981" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2981" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>松本信用金庫</t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2982" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2982" t="n">
+        <v>1391</v>
+      </c>
+      <c r="F2982" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2982" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2982" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>諏訪信用金庫</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2983" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2983" t="n">
+        <v>1393</v>
+      </c>
+      <c r="F2983" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2983" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2983" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>飯田信用金庫</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2984" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2984" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F2984" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2984" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2984" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>アルプス中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2985" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="E2985" t="n">
+        <v>1396</v>
+      </c>
+      <c r="F2985" t="inlineStr"/>
+      <c r="G2985" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2985" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>富山信用金庫</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2986" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2986" t="n">
+        <v>1401</v>
+      </c>
+      <c r="F2986" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2986" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2986" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>新湊信用金庫</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2987" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2987" t="n">
+        <v>1404</v>
+      </c>
+      <c r="F2987" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2987" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2987" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>にいかわ信用金庫</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2988" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2988" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F2988" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2988" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2988" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>氷見伏木信用金庫</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2989" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2989" t="n">
+        <v>1406</v>
+      </c>
+      <c r="F2989" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2989" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2989" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>石動信用金庫</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2990" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="E2990" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F2990" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2990" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2990" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>金沢信用金庫</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2991" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2991" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F2991" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2991" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2991" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>のと共栄信用金庫</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2992" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2992" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F2992" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2992" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2992" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>はくさん信用金庫</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2993" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2993" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F2993" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2993" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2993" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>興能信用金庫</t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2994" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="E2994" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F2994" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2994" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2994" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>福井信用金庫</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2995" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2995" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F2995" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2995" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2995" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>敦賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C2996" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2996" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2996" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F2996" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2996" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2996" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>越前信用金庫</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2997" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="E2997" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F2997" t="n">
+        <v>300</v>
+      </c>
+      <c r="G2997" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2997" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>しずおか焼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2998" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2998" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F2998" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2998" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2998" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>静清信用金庫</t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D2999" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E2999" t="n">
+        <v>1502</v>
+      </c>
+      <c r="F2999" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2999" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2999" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>浜松磐田信用金庫</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3000" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3000" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F3000" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3000" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3000" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>沼津信用金庫</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3001" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3001" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F3001" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3001" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3001" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>三島信用金庫</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3002" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3002" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F3002" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3002" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3002" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>富士宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3003" t="n">
+        <v>1507</v>
+      </c>
+      <c r="F3003" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3003" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3003" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>島田掛川信用金庫</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3004" t="n">
+        <v>1513</v>
+      </c>
+      <c r="F3004" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3004" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3004" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>小松川信用金庫</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3005" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3005" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F3005" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3005" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3005" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>東京三協信用金庫</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3006" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F3006" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3006" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3006" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>富士信用金庫</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3007" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3007" t="n">
+        <v>1515</v>
+      </c>
+      <c r="F3007" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3007" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3007" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>遠州信用金庫</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3008" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="E3008" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F3008" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3008" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3008" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>岐阜信用金庫</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3009" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E3009" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3009" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>高山信用金庫</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3010" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E3010" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F3010" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3010" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3010" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>東濃信用金庫</t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3011" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E3011" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F3011" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3011" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3011" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>関信用金庫</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3012" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E3012" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F3012" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3012" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3012" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>八幡信用金庫</t>
+        </is>
+      </c>
+      <c r="C3013" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3013" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="E3013" t="n">
+        <v>1538</v>
+      </c>
+      <c r="F3013" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3013" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3013" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>豊橋信用金庫</t>
+        </is>
+      </c>
+      <c r="C3014" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3014" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3014" t="n">
+        <v>1551</v>
+      </c>
+      <c r="F3014" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3014" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3014" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>岡崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C3015" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3015" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3015" t="n">
+        <v>1552</v>
+      </c>
+      <c r="F3015" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3015" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3015" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>半田信用金庫</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3016" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3016" t="n">
+        <v>1555</v>
+      </c>
+      <c r="F3016" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3016" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3016" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>知多信用金庫</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3017" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3017" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F3017" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3017" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3017" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>豊川信用金庫</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3018" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3018" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F3018" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3018" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3018" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>豊田信用金庫</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3019" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3019" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F3019" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3019" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3019" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>碧海信用金庫</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3020" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3020" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F3020" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3020" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3020" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>西尾信用金庫</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3021" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3021" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F3021" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3021" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3021" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>蒲郡信用金庫</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3022" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3022" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F3022" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3022" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3022" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>尾西信用金庫</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3023" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F3023" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G3023" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3023" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>中日信用金庫</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3024" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="E3024" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F3024" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3024" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3024" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>桑名三重信用金庫</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3025" t="inlineStr">
+        <is>
+          <t>三重県</t>
+        </is>
+      </c>
+      <c r="E3025" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F3025" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3025" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3025" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>滋賀中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3026" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E3026" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F3026" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3026" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3026" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>長浜信用金庫</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3027" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E3027" t="n">
+        <v>1603</v>
+      </c>
+      <c r="F3027" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3027" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3027" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>湖東信用金庫</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3028" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="E3028" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F3028" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3028" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3028" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>西京信用金庫</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3029" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3029" t="n">
+        <v>1336</v>
+      </c>
+      <c r="F3029" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3029" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3029" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>西武信用金庫</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3030" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3030" t="n">
+        <v>1341</v>
+      </c>
+      <c r="F3030" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3030" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3030" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>城南信用金庫</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3031" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3031" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F3031" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3031" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3031" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>京都信用金庫</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3032" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E3032" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F3032" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3032" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3032" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>京都中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3033" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E3033" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F3033" t="inlineStr"/>
+      <c r="G3033" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3033" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>京都北都信用金庫</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3034" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="E3034" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F3034" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3034" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3034" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>大阪信用金庫</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3035" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E3035" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F3035" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3035" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3035" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>大阪シティ信用金庫</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3036" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E3036" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F3036" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3036" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3036" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>北おおさか信用金庫</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3037" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="E3037" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F3037" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3037" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3037" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>奈良信用金庫</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3038" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E3038" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F3038" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3038" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3038" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>大和信用金庫</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3039" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E3039" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F3039" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3039" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3039" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>奈良中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3040" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="E3040" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F3040" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3040" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3040" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>新宮信用金庫</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3041" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E3041" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F3041" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3041" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3041" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>きのくに信用金庫</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3042" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="E3042" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F3042" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3042" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3042" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>神戸信用金庫</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3043" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3043" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F3043" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3043" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3043" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>播州信用金庫</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3044" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3044" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F3044" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3044" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3044" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3045" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3045" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F3045" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3045" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3045" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>尼崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3046" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3046" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F3046" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3046" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3046" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>日新信用金庫</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3047" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3047" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F3047" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3047" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3047" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>淡路信用金庫</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3048" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3048" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F3048" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3048" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3048" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>但馬信用金庫</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3049" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3049" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F3049" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3049" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3049" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>西兵庫信用金庫</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3050" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3050" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F3050" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3050" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3050" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>但陽信用金庫</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3051" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="E3051" t="n">
+        <v>1696</v>
+      </c>
+      <c r="F3051" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3051" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3051" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>鳥取信用金庫</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3052" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E3052" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F3052" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3052" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3052" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>米子信用金庫</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3053" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E3053" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F3053" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3053" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3053" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>倉吉信用金庫</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3054" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="E3054" t="n">
+        <v>1703</v>
+      </c>
+      <c r="F3054" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3054" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3054" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>しまね信用金庫</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3055" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E3055" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F3055" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3055" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3055" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>昭和信用金庫</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3056" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3056" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F3056" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3056" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3056" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>世田谷信用金庫</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3057" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3057" t="n">
+        <v>1348</v>
+      </c>
+      <c r="F3057" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3057" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3057" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>日本海信用金庫</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3058" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E3058" t="n">
+        <v>1711</v>
+      </c>
+      <c r="F3058" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3058" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3058" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>島根中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3059" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="E3059" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F3059" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3059" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3059" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>おかやま信用金庫</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3060" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3060" t="n">
+        <v>1732</v>
+      </c>
+      <c r="F3060" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3060" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3060" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>水島信用金庫</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3061" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3061" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F3061" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3061" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3061" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>津山信用金庫</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3062" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3062" t="n">
+        <v>1735</v>
+      </c>
+      <c r="F3062" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3062" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3062" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>玉島信用金庫</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3063" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3063" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F3063" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3063" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3063" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>備北信用金庫</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3064" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3064" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F3064" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3064" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3064" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>吉備信用金庫</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3065" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3065" t="n">
+        <v>1741</v>
+      </c>
+      <c r="F3065" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3065" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3065" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>備前日生信用金庫</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3066" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="E3066" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F3066" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3066" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3066" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>広島信用金庫</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3067" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E3067" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F3067" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3067" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3067" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>呉信用金庫</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3068" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="E3068" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F3068" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3068" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3068" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>西中国信用金庫</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3069" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E3069" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F3069" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3069" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3069" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>東山口信用金庫</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3070" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="E3070" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F3070" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3070" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3070" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>阿南信用金庫</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3071" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="E3071" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F3071" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3071" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3071" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>高松信用金庫</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3072" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E3072" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F3072" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3072" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3072" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>観音寺信用金庫</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3073" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="E3073" t="n">
+        <v>1833</v>
+      </c>
+      <c r="F3073" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G3073" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3073" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>愛媛信用金庫</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3074" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E3074" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F3074" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3074" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3074" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>宇和島信用金庫</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3075" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E3075" t="n">
+        <v>1862</v>
+      </c>
+      <c r="F3075" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3075" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3075" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>東予信用金庫</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3076" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="E3076" t="n">
+        <v>1864</v>
+      </c>
+      <c r="F3076" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3076" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3076" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>幡多信用金庫</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3077" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E3077" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F3077" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3077" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3077" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>高知信用金庫</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3078" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="E3078" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F3078" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3078" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3078" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>福岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3079" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E3079" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F3079" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3079" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3079" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>福岡ひびき信用金庫</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3080" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E3080" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F3080" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3080" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3080" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>東京信用金庫</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3081" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3081" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F3081" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3081" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3081" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>城北信用金庫</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3082" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3082" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F3082" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3082" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3082" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>瀧野川信用金庫</t>
+        </is>
+      </c>
+      <c r="C3083" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3083" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3083" t="n">
+        <v>1352</v>
+      </c>
+      <c r="F3083" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3083" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3083" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>飯塚信用金庫</t>
+        </is>
+      </c>
+      <c r="C3084" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3084" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E3084" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F3084" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3084" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3084" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>田川信用金庫</t>
+        </is>
+      </c>
+      <c r="C3085" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3085" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E3085" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F3085" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3085" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3085" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>大川信用金庫</t>
+        </is>
+      </c>
+      <c r="C3086" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3086" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E3086" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F3086" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3086" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3086" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>遠賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C3087" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3087" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="E3087" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F3087" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3087" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3087" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>佐賀信用金庫</t>
+        </is>
+      </c>
+      <c r="C3088" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3088" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="E3088" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F3088" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3088" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3088" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>たちばな信用金庫</t>
+        </is>
+      </c>
+      <c r="C3089" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3089" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="E3089" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F3089" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G3089" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3089" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3090" t="inlineStr">
+        <is>
+          <t>熊本第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3090" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E3090" t="n">
+        <v>1952</v>
+      </c>
+      <c r="F3090" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3090" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3090" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3091" t="inlineStr">
+        <is>
+          <t>熊本中央信用金庫</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3091" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E3091" t="n">
+        <v>1954</v>
+      </c>
+      <c r="F3091" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3091" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3091" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3092" t="inlineStr">
+        <is>
+          <t>天草信用金庫</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3092" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="E3092" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F3092" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3092" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3092" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3093" t="inlineStr">
+        <is>
+          <t>大分信用金庫</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3093" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E3093" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F3093" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3093" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3093" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3094" t="inlineStr">
+        <is>
+          <t>大分みらい信用金庫</t>
+        </is>
+      </c>
+      <c r="C3094" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3094" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="E3094" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F3094" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3094" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3094" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3095" t="inlineStr">
+        <is>
+          <t>宮崎第一信用金庫</t>
+        </is>
+      </c>
+      <c r="C3095" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3095" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E3095" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F3095" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3095" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3095" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>高鍋信用金庫</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3096" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="E3096" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F3096" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3096" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3096" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>鹿児島信用金庫</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3097" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E3097" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F3097" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3097" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3097" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>鹿児島相互信用金庫</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3098" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="E3098" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F3098" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3098" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3098" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>コザ信用金庫</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3099" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="E3099" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F3099" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3099" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3099" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>巣鴨信用金庫</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3100" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3100" t="n">
+        <v>1356</v>
+      </c>
+      <c r="F3100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>青梅信用金庫</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3101" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3101" t="n">
+        <v>1358</v>
+      </c>
+      <c r="F3101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>多摩信用金庫</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3102" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="E3102" t="n">
+        <v>1360</v>
+      </c>
+      <c r="F3102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>新潟信用金庫</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3103" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3103" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F3103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>長岡信用金庫</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3104" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3104" t="n">
+        <v>1371</v>
+      </c>
+      <c r="F3104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>三条信用金庫</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3105" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3105" t="n">
+        <v>1373</v>
+      </c>
+      <c r="F3105" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>柏崎信用金庫</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3106" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3106" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F3106" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>上越信用金庫</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3107" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3107" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F3107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>新井信用金庫</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3108" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3108" t="n">
+        <v>1377</v>
+      </c>
+      <c r="F3108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>加茂信用金庫</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr">
+        <is>
+          <t>信用金庫</t>
+        </is>
+      </c>
+      <c r="D3109" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="E3109" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F3109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3109" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
